--- a/Planning/Strokenplanning.xlsx
+++ b/Planning/Strokenplanning.xlsx
@@ -195,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="77">
+  <fonts count="81">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -224,6 +224,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -261,7 +270,7 @@
     </font>
     <font>
       <b/>
-      <i val="0"/>
+      <i/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="10.0"/>
@@ -278,6 +287,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -539,6 +557,24 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <strike val="0"/>
@@ -553,6 +589,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -566,12 +611,30 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="10.0"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -584,6 +647,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -620,6 +692,33 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <strike val="0"/>
@@ -647,6 +746,24 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <strike val="0"/>
@@ -656,6 +773,24 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <strike val="0"/>
@@ -665,6 +800,51 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -683,6 +863,33 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -696,7 +903,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -706,7 +913,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -718,179 +925,8 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="61">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,6 +967,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1069,12 +1111,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9900FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1207,6 +1243,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1225,6 +1267,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF38761D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1254,7 +1302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1285,6 +1333,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1334,6 +1391,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1659,12 +1729,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1911,6 +1977,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1983,6 +2060,15 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2063,7 +2149,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
@@ -2071,154 +2157,164 @@
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="2">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="3">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" fillId="4" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="3" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="4" applyFill="1">
+    <xf applyBorder="1" fillId="4" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="4" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="5" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="6" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="5" applyFill="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="6"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="7"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="8" applyFill="1">
+    <xf applyBorder="1" fillId="6" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="6" applyFill="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="7"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="8" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf fillId="8" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="9" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="10" applyFill="1">
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="9" applyFont="1" fontId="10" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="10" xfId="0" numFmtId="0" borderId="9" applyFont="1" fontId="11" applyFill="1"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="12"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="13">
+    <xf fillId="9" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="11" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="10" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="12" applyFill="1">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf applyBorder="1" fillId="11" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="13" applyFill="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="14"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="15">
       <alignment vertical="bottom" horizontal="right"/>
     </xf>
-    <xf fillId="11" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="14" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="15">
+    <xf fillId="12" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="16" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="17">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="12" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="16" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="18" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="13" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="17" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="18" applyFill="1">
+    <xf applyBorder="1" fillId="14" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="19" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="20" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="15" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="19" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="20" applyFill="1">
+    <xf applyBorder="1" fillId="16" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="21" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="22" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="17" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="21" applyFill="1"/>
-    <xf applyBorder="1" fillId="18" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="22" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="23" applyFill="1">
+    <xf applyBorder="1" fillId="18" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="23" applyFill="1"/>
+    <xf applyBorder="1" fillId="19" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="24" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="20" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="25" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="20" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="24" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="21" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="25" applyFill="1">
+    <xf applyBorder="1" fillId="21" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="26" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="22" applyFont="1" fontId="27" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="22" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="26" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="23" xfId="0" numFmtId="0" borderId="23" applyFont="1" fontId="28" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="22" applyFont="1" fontId="27"/>
-    <xf fillId="23" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="28" applyFill="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="23" applyFont="1" fontId="29"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="24" xfId="0" numFmtId="0" borderId="24" applyFont="1" fontId="30" applyFill="1">
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="24" applyFont="1" fontId="29"/>
+    <xf fillId="24" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="30" applyFill="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="25" applyFont="1" fontId="31"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="26" applyFont="1" fontId="32" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="25" xfId="0" numFmtId="0" borderId="25" applyFont="1" fontId="31" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="33" applyFill="1">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="26" xfId="0" numFmtId="0" borderId="26" applyFont="1" fontId="32" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="27" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="34" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="33"/>
-    <xf applyBorder="1" fillId="27" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="34" applyFill="1"/>
-    <xf applyBorder="1" fillId="28" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="35" applyFill="1"/>
-    <xf fillId="29" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="36" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="30" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="37" applyFill="1">
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="35"/>
+    <xf applyBorder="1" fillId="28" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="36" applyFill="1"/>
+    <xf applyBorder="1" fillId="29" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="37" applyFill="1"/>
+    <xf fillId="30" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="38" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="32" applyFont="1" fontId="39">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="38">
+    <xf fillId="31" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="40" applyFill="1"/>
+    <xf fillId="32" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="41" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="33" applyFont="1" fontId="42">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf fillId="31" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="39" applyFill="1"/>
-    <xf fillId="32" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="40" applyFill="1"/>
-    <xf applyBorder="1" fillId="33" xfId="0" numFmtId="164" borderId="32" applyFont="1" fontId="41" applyNumberFormat="1" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="33" applyFont="1" fontId="42" applyFill="1">
+    <xf applyBorder="1" fillId="33" xfId="0" numFmtId="164" borderId="34" applyFont="1" fontId="43" applyNumberFormat="1" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="34" xfId="0" numFmtId="0" borderId="35" applyFont="1" fontId="44" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="35" xfId="0" numFmtId="0" borderId="34" applyFont="1" fontId="43" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="35" applyFont="1" fontId="44" applyFill="1">
+    <xf applyBorder="1" fillId="35" xfId="0" numFmtId="0" borderId="36" applyFont="1" fontId="45" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="36" xfId="0" numFmtId="0" borderId="37" applyFont="1" fontId="46" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="36" applyFont="1" fontId="45">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="38" applyFont="1" fontId="47">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="37" applyFont="1" fontId="46"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="38" applyFont="1" fontId="47" applyFill="1">
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="39" applyFont="1" fontId="48"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="37" xfId="0" numFmtId="0" borderId="40" applyFont="1" fontId="49" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="38" xfId="0" numFmtId="0" borderId="39" applyFont="1" fontId="48" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="38" xfId="0" numFmtId="0" borderId="41" applyFont="1" fontId="50" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="39" xfId="0" numFmtId="0" borderId="40" applyFont="1" fontId="49" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="40" xfId="0" numFmtId="0" borderId="41" applyFont="1" fontId="50" applyFill="1">
+    <xf applyBorder="1" fillId="39" xfId="0" numFmtId="0" borderId="42" applyFont="1" fontId="51" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="40" xfId="0" numFmtId="0" borderId="43" applyFont="1" fontId="52" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="41" xfId="0" numFmtId="0" borderId="42" applyFont="1" fontId="51" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="41" xfId="0" numFmtId="0" borderId="44" applyFont="1" fontId="53" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf fillId="42" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="52" applyFill="1"/>
-    <xf applyBorder="1" fillId="43" xfId="0" numFmtId="0" borderId="43" applyFont="1" fontId="53" applyFill="1"/>
-    <xf applyBorder="1" fillId="44" xfId="0" numFmtId="0" borderId="44" applyFont="1" fontId="54" applyFill="1"/>
-    <xf fillId="45" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="55" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="45" applyFont="1" fontId="56">
+    <xf fillId="42" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="54" applyFill="1"/>
+    <xf applyBorder="1" fillId="43" xfId="0" numFmtId="0" borderId="45" applyFont="1" fontId="55" applyFill="1"/>
+    <xf applyBorder="1" fillId="44" xfId="0" numFmtId="0" borderId="46" applyFont="1" fontId="56" applyFill="1"/>
+    <xf fillId="45" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="57" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="47" applyFont="1" fontId="58">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="46" xfId="0" numFmtId="0" borderId="46" applyFont="1" fontId="57" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="46" xfId="0" numFmtId="0" borderId="48" applyFont="1" fontId="59" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="47" xfId="0" numFmtId="0" borderId="47" applyFont="1" fontId="58" applyFill="1"/>
-    <xf fillId="48" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="59" applyFill="1"/>
-    <xf applyBorder="1" fillId="49" xfId="0" numFmtId="0" borderId="48" applyFont="1" fontId="60" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="49" applyFont="1" fontId="61">
+    <xf applyBorder="1" fillId="47" xfId="0" numFmtId="0" borderId="49" applyFont="1" fontId="60" applyFill="1"/>
+    <xf fillId="48" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="61" applyFill="1"/>
+    <xf applyBorder="1" fillId="49" xfId="0" numFmtId="0" borderId="50" applyFont="1" fontId="62" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="51" applyFont="1" fontId="63">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="50" xfId="0" numFmtId="0" borderId="50" applyFont="1" fontId="62" applyFill="1"/>
-    <xf applyBorder="1" fillId="51" xfId="0" numFmtId="0" borderId="51" applyFont="1" fontId="63" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="52" xfId="0" numFmtId="0" borderId="52" applyFont="1" fontId="64" applyFill="1">
+    <xf applyBorder="1" fillId="50" xfId="0" numFmtId="0" borderId="52" applyFont="1" fontId="64" applyFill="1"/>
+    <xf applyBorder="1" fillId="51" xfId="0" numFmtId="0" borderId="53" applyFont="1" fontId="65" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="52" xfId="0" numFmtId="0" borderId="54" applyFont="1" fontId="66" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="53" xfId="0" numFmtId="0" borderId="53" applyFont="1" fontId="65" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="53" xfId="0" numFmtId="0" borderId="55" applyFont="1" fontId="67" applyFill="1">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="54" xfId="0" numFmtId="0" borderId="56" applyFont="1" fontId="68" applyFill="1">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="54" applyFont="1" fontId="66">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="57" applyFont="1" fontId="69">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="54" xfId="0" numFmtId="0" borderId="55" applyFont="1" fontId="67" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="55" xfId="0" numFmtId="0" borderId="56" applyFont="1" fontId="68" applyFill="1">
+    <xf applyBorder="1" fillId="55" xfId="0" numFmtId="0" borderId="58" applyFont="1" fontId="70" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="56" xfId="0" numFmtId="0" borderId="59" applyFont="1" fontId="71" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="57" applyFont="1" fontId="69"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="58" applyFont="1" fontId="70">
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="60" applyFont="1" fontId="72"/>
+    <xf applyBorder="1" fillId="57" xfId="0" numFmtId="0" borderId="61" applyFont="1" fontId="73" applyFill="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="62" applyFont="1" fontId="74">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="59" applyFont="1" fontId="71">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="63" applyFont="1" fontId="75">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="56" xfId="0" numFmtId="0" borderId="60" applyFont="1" fontId="72" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="58" xfId="0" numFmtId="0" borderId="64" applyFont="1" fontId="76" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf fillId="57" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="73" applyFill="1"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="74"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="58" xfId="0" numFmtId="0" borderId="61" fontId="0" applyFill="1">
+    <xf fillId="59" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="77" applyFill="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="78"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="60" xfId="0" numFmtId="0" borderId="65" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="59" xfId="0" numFmtId="0" borderId="62" applyFont="1" fontId="75" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="61" xfId="0" numFmtId="0" borderId="66" applyFont="1" fontId="79" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="60" xfId="0" numFmtId="0" borderId="63" applyFont="1" fontId="76" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="62" xfId="0" numFmtId="0" borderId="67" applyFont="1" fontId="80" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2257,13 +2353,13 @@
   </cols>
   <sheetData>
     <row customHeight="1" r="1" ht="18.0">
-      <c s="13" r="A1"/>
-      <c s="75" r="B1"/>
-      <c t="s" s="8" r="C1">
+      <c s="15" r="A1"/>
+      <c s="79" r="B1"/>
+      <c t="s" s="10" r="C1">
         <v>0</v>
       </c>
-      <c s="13" r="D1"/>
-      <c t="s" s="14" r="E1">
+      <c s="15" r="D1"/>
+      <c t="s" s="16" r="E1">
         <v>1</v>
       </c>
       <c t="s" r="F1">
@@ -2272,1469 +2368,1469 @@
       <c t="s" r="G1">
         <v>3</v>
       </c>
-      <c s="13" r="H1">
+      <c s="15" r="H1">
         <v>62480</v>
       </c>
-      <c s="3" r="I1"/>
-      <c s="13" r="J1"/>
-      <c s="8" r="K1"/>
-      <c s="13" r="L1"/>
-      <c s="13" r="M1"/>
-      <c s="13" r="N1"/>
-      <c s="13" r="O1"/>
-      <c s="13" r="P1"/>
-      <c s="13" r="Q1"/>
-      <c s="13" r="R1"/>
-      <c s="13" r="S1"/>
-      <c s="13" r="T1"/>
-      <c s="13" r="U1"/>
-      <c s="13" r="V1"/>
+      <c s="4" r="I1"/>
+      <c s="15" r="J1"/>
+      <c s="10" r="K1"/>
+      <c s="15" r="L1"/>
+      <c s="15" r="M1"/>
+      <c s="15" r="N1"/>
+      <c s="15" r="O1"/>
+      <c s="15" r="P1"/>
+      <c s="15" r="Q1"/>
+      <c s="15" r="R1"/>
+      <c s="15" r="S1"/>
+      <c s="15" r="T1"/>
+      <c s="15" r="U1"/>
+      <c s="15" r="V1"/>
     </row>
     <row r="2">
-      <c s="13" r="A2"/>
-      <c s="13" r="B2"/>
-      <c s="13" r="C2"/>
-      <c s="13" r="D2"/>
-      <c s="13" r="E2"/>
-      <c t="s" s="13" r="F2">
+      <c s="15" r="A2"/>
+      <c s="15" r="B2"/>
+      <c s="15" r="C2"/>
+      <c s="15" r="D2"/>
+      <c s="15" r="E2"/>
+      <c t="s" s="15" r="F2">
         <v>4</v>
       </c>
-      <c t="s" s="13" r="G2">
+      <c t="s" s="15" r="G2">
         <v>5</v>
       </c>
-      <c s="13" r="H2">
+      <c s="15" r="H2">
         <v>71396</v>
       </c>
-      <c s="15" r="I2"/>
-      <c s="13" r="J2"/>
-      <c s="13" r="K2"/>
-      <c s="13" r="L2"/>
-      <c s="13" r="M2"/>
-      <c s="13" r="N2"/>
-      <c s="13" r="O2"/>
-      <c s="13" r="P2"/>
-      <c s="13" r="Q2"/>
-      <c s="13" r="R2"/>
-      <c s="13" r="S2"/>
-      <c s="13" r="T2"/>
-      <c s="13" r="U2"/>
-      <c s="13" r="V2"/>
+      <c s="17" r="I2"/>
+      <c s="15" r="J2"/>
+      <c s="15" r="K2"/>
+      <c s="15" r="L2"/>
+      <c s="15" r="M2"/>
+      <c s="15" r="N2"/>
+      <c s="15" r="O2"/>
+      <c s="15" r="P2"/>
+      <c s="15" r="Q2"/>
+      <c s="15" r="R2"/>
+      <c s="15" r="S2"/>
+      <c s="15" r="T2"/>
+      <c s="15" r="U2"/>
+      <c s="15" r="V2"/>
     </row>
     <row r="3">
-      <c s="13" r="A3"/>
-      <c s="13" r="B3"/>
-      <c s="13" r="C3"/>
-      <c s="13" r="D3"/>
-      <c s="13" r="E3"/>
+      <c s="15" r="A3"/>
+      <c s="15" r="B3"/>
+      <c s="15" r="C3"/>
+      <c s="15" r="D3"/>
+      <c s="15" r="E3"/>
       <c t="s" r="F3">
         <v>6</v>
       </c>
       <c t="s" r="G3">
         <v>7</v>
       </c>
-      <c s="13" r="H3">
+      <c s="15" r="H3">
         <v>71989</v>
       </c>
-      <c s="74" r="I3"/>
-      <c s="13" r="J3"/>
-      <c s="13" r="K3"/>
-      <c s="13" r="L3"/>
-      <c s="13" r="M3"/>
-      <c s="13" r="N3"/>
-      <c s="13" r="O3"/>
-      <c s="13" r="P3"/>
-      <c s="13" r="Q3"/>
-      <c s="13" r="R3"/>
-      <c s="13" r="S3"/>
-      <c s="13" r="T3"/>
-      <c s="13" r="U3"/>
-      <c s="13" r="V3"/>
+      <c s="78" r="I3"/>
+      <c s="15" r="J3"/>
+      <c s="15" r="K3"/>
+      <c s="15" r="L3"/>
+      <c s="15" r="M3"/>
+      <c s="15" r="N3"/>
+      <c s="15" r="O3"/>
+      <c s="15" r="P3"/>
+      <c s="15" r="Q3"/>
+      <c s="15" r="R3"/>
+      <c s="15" r="S3"/>
+      <c s="15" r="T3"/>
+      <c s="15" r="U3"/>
+      <c s="15" r="V3"/>
     </row>
     <row r="4">
-      <c s="13" r="A4"/>
-      <c s="13" r="B4"/>
-      <c s="13" r="C4"/>
-      <c s="13" r="D4"/>
-      <c s="13" r="E4"/>
-      <c t="s" s="13" r="F4">
+      <c s="15" r="A4"/>
+      <c s="15" r="B4"/>
+      <c s="15" r="C4"/>
+      <c s="15" r="D4"/>
+      <c s="15" r="E4"/>
+      <c t="s" s="15" r="F4">
         <v>8</v>
       </c>
-      <c t="s" s="13" r="G4">
+      <c t="s" s="15" r="G4">
         <v>9</v>
       </c>
-      <c s="13" r="H4">
+      <c s="15" r="H4">
         <v>72051</v>
       </c>
-      <c s="56" r="I4"/>
-      <c s="13" r="J4"/>
-      <c s="13" r="K4"/>
-      <c s="13" r="L4"/>
-      <c s="13" r="M4"/>
-      <c s="13" r="N4"/>
-      <c s="13" r="O4"/>
-      <c s="13" r="P4"/>
-      <c s="13" r="Q4"/>
-      <c s="13" r="R4"/>
-      <c s="13" r="S4"/>
-      <c s="13" r="T4"/>
-      <c s="13" r="U4"/>
-      <c s="13" r="V4"/>
+      <c s="58" r="I4"/>
+      <c s="15" r="J4"/>
+      <c s="15" r="K4"/>
+      <c s="15" r="L4"/>
+      <c s="15" r="M4"/>
+      <c s="15" r="N4"/>
+      <c s="15" r="O4"/>
+      <c s="15" r="P4"/>
+      <c s="15" r="Q4"/>
+      <c s="15" r="R4"/>
+      <c s="15" r="S4"/>
+      <c s="15" r="T4"/>
+      <c s="15" r="U4"/>
+      <c s="15" r="V4"/>
     </row>
     <row r="5">
-      <c s="13" r="A5"/>
-      <c s="13" r="B5"/>
-      <c s="13" r="C5"/>
-      <c s="13" r="D5"/>
-      <c s="13" r="E5"/>
+      <c s="15" r="A5"/>
+      <c s="15" r="B5"/>
+      <c s="15" r="C5"/>
+      <c s="15" r="D5"/>
+      <c s="15" r="E5"/>
       <c t="s" r="F5">
         <v>10</v>
       </c>
-      <c s="10" r="I5"/>
-      <c s="13" r="J5"/>
-      <c s="13" r="K5"/>
-      <c s="13" r="L5"/>
-      <c s="13" r="M5"/>
-      <c s="13" r="N5"/>
-      <c s="13" r="O5"/>
-      <c s="13" r="P5"/>
-      <c s="13" r="Q5"/>
-      <c s="13" r="R5"/>
-      <c s="13" r="S5"/>
-      <c s="13" r="T5"/>
-      <c s="13" r="U5"/>
-      <c s="13" r="V5"/>
+      <c s="12" r="I5"/>
+      <c s="15" r="J5"/>
+      <c s="15" r="K5"/>
+      <c s="15" r="L5"/>
+      <c s="15" r="M5"/>
+      <c s="15" r="N5"/>
+      <c s="15" r="O5"/>
+      <c s="15" r="P5"/>
+      <c s="15" r="Q5"/>
+      <c s="15" r="R5"/>
+      <c s="15" r="S5"/>
+      <c s="15" r="T5"/>
+      <c s="15" r="U5"/>
+      <c s="15" r="V5"/>
     </row>
     <row r="6">
-      <c s="13" r="A6"/>
+      <c s="15" r="A6"/>
     </row>
     <row r="7">
-      <c s="13" r="A7"/>
-      <c s="7" r="B7"/>
-      <c s="7" r="C7"/>
-      <c s="7" r="D7"/>
-      <c s="42" r="E7">
+      <c s="15" r="A7"/>
+      <c s="8" r="B7"/>
+      <c s="8" r="C7"/>
+      <c s="8" r="D7"/>
+      <c s="44" r="E7">
         <v>41375</v>
       </c>
-      <c s="42" r="F7">
+      <c s="44" r="F7">
         <v>41405</v>
       </c>
-      <c s="42" r="G7">
+      <c s="44" r="G7">
         <v>41466</v>
       </c>
-      <c s="42" r="H7">
+      <c s="44" r="H7">
         <v>41589</v>
       </c>
-      <c s="42" r="I7">
+      <c s="44" r="I7">
         <v>41619</v>
       </c>
-      <c t="s" s="64" r="J7">
+      <c t="s" s="66" r="J7">
         <v>11</v>
       </c>
-      <c t="s" s="64" r="K7">
+      <c t="s" s="66" r="K7">
         <v>12</v>
       </c>
-      <c t="s" s="64" r="L7">
+      <c t="s" s="66" r="L7">
         <v>13</v>
       </c>
-      <c t="s" s="64" r="M7">
+      <c t="s" s="66" r="M7">
         <v>14</v>
       </c>
-      <c t="s" s="64" r="N7">
+      <c t="s" s="66" r="N7">
         <v>15</v>
       </c>
-      <c t="s" s="64" r="O7">
+      <c t="s" s="66" r="O7">
         <v>16</v>
       </c>
-      <c t="s" s="64" r="P7">
+      <c t="s" s="66" r="P7">
         <v>17</v>
       </c>
-      <c s="42" r="Q7">
+      <c s="44" r="Q7">
         <v>41345</v>
       </c>
-      <c s="42" r="R7">
+      <c s="44" r="R7">
         <v>41376</v>
       </c>
-      <c s="42" r="S7">
+      <c s="44" r="S7">
         <v>41437</v>
       </c>
-      <c s="42" r="T7">
+      <c s="44" r="T7">
         <v>41529</v>
       </c>
-      <c s="42" r="U7">
+      <c s="44" r="U7">
         <v>41559</v>
       </c>
-      <c s="42" r="V7">
+      <c s="44" r="V7">
         <v>41620</v>
       </c>
     </row>
     <row r="8">
-      <c s="30" r="A8"/>
-      <c s="26" r="B8"/>
-      <c s="61" r="C8"/>
-      <c s="9" r="D8"/>
-      <c t="s" s="32" r="E8">
+      <c s="32" r="A8"/>
+      <c s="28" r="B8"/>
+      <c s="63" r="C8"/>
+      <c s="11" r="D8"/>
+      <c t="s" s="34" r="E8">
         <v>18</v>
       </c>
-      <c s="32" r="F8"/>
-      <c s="32" r="G8"/>
-      <c t="s" s="32" r="H8">
+      <c s="34" r="F8"/>
+      <c s="34" r="G8"/>
+      <c t="s" s="34" r="H8">
         <v>19</v>
       </c>
-      <c s="32" r="I8"/>
-      <c s="32" r="J8"/>
-      <c t="s" s="32" r="K8">
+      <c s="34" r="I8"/>
+      <c s="34" r="J8"/>
+      <c t="s" s="34" r="K8">
         <v>20</v>
       </c>
-      <c s="32" r="L8"/>
-      <c s="32" r="M8"/>
-      <c t="s" s="32" r="N8">
+      <c s="34" r="L8"/>
+      <c s="34" r="M8"/>
+      <c t="s" s="34" r="N8">
         <v>21</v>
       </c>
-      <c s="32" r="O8"/>
-      <c s="32" r="P8"/>
-      <c t="s" s="32" r="Q8">
+      <c s="34" r="O8"/>
+      <c s="34" r="P8"/>
+      <c t="s" s="34" r="Q8">
         <v>22</v>
       </c>
-      <c s="32" r="R8"/>
-      <c s="32" r="S8"/>
-      <c t="s" s="32" r="T8">
+      <c s="34" r="R8"/>
+      <c s="34" r="S8"/>
+      <c t="s" s="34" r="T8">
         <v>23</v>
       </c>
-      <c s="32" r="U8"/>
-      <c s="32" r="V8"/>
+      <c s="34" r="U8"/>
+      <c s="34" r="V8"/>
     </row>
     <row r="9">
-      <c s="30" r="A9"/>
-      <c s="77" r="B9"/>
-      <c s="77" r="C9"/>
-      <c s="26" r="D9"/>
-      <c t="s" s="77" r="E9">
+      <c s="32" r="A9"/>
+      <c s="81" r="B9"/>
+      <c s="81" r="C9"/>
+      <c s="28" r="D9"/>
+      <c t="s" s="81" r="E9">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="F9">
+      <c t="s" s="81" r="F9">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="G9">
+      <c t="s" s="81" r="G9">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="H9">
+      <c t="s" s="81" r="H9">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="I9">
+      <c t="s" s="81" r="I9">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="J9">
+      <c t="s" s="81" r="J9">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="K9">
+      <c t="s" s="81" r="K9">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="L9">
+      <c t="s" s="81" r="L9">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="M9">
+      <c t="s" s="81" r="M9">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="N9">
+      <c t="s" s="81" r="N9">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="O9">
+      <c t="s" s="81" r="O9">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="P9">
+      <c t="s" s="81" r="P9">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="Q9">
+      <c t="s" s="81" r="Q9">
         <v>27</v>
       </c>
-      <c t="s" s="77" r="R9">
+      <c t="s" s="81" r="R9">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="S9">
+      <c t="s" s="81" r="S9">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="T9">
+      <c t="s" s="81" r="T9">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="U9">
+      <c t="s" s="81" r="U9">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="V9">
+      <c t="s" s="81" r="V9">
         <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c s="30" r="A10"/>
-      <c s="77" r="B10"/>
-      <c t="s" s="68" r="C10">
+      <c s="32" r="A10"/>
+      <c s="81" r="B10"/>
+      <c t="s" s="71" r="C10">
         <v>28</v>
       </c>
-      <c s="73" r="D10"/>
-      <c s="58" r="E10"/>
-      <c s="58" r="F10"/>
-      <c s="58" r="G10"/>
-      <c s="58" r="H10"/>
-      <c s="58" r="I10"/>
-      <c s="58" r="J10"/>
-      <c s="58" r="K10"/>
-      <c s="58" r="L10"/>
-      <c s="58" r="M10"/>
-      <c s="58" r="N10"/>
-      <c s="58" r="O10"/>
-      <c s="58" r="P10"/>
-      <c s="58" r="Q10"/>
-      <c s="58" r="R10"/>
-      <c s="58" r="S10"/>
-      <c s="58" r="T10"/>
-      <c s="58" r="U10"/>
-      <c s="58" r="V10"/>
+      <c s="77" r="D10"/>
+      <c s="60" r="E10"/>
+      <c s="60" r="F10"/>
+      <c s="60" r="G10"/>
+      <c s="60" r="H10"/>
+      <c s="60" r="I10"/>
+      <c s="60" r="J10"/>
+      <c s="60" r="K10"/>
+      <c s="60" r="L10"/>
+      <c s="60" r="M10"/>
+      <c s="60" r="N10"/>
+      <c s="60" r="O10"/>
+      <c s="60" r="P10"/>
+      <c s="60" r="Q10"/>
+      <c s="60" r="R10"/>
+      <c s="60" r="S10"/>
+      <c s="60" r="T10"/>
+      <c s="60" r="U10"/>
+      <c s="60" r="V10"/>
     </row>
     <row r="11">
-      <c s="30" r="A11"/>
-      <c s="77" r="B11">
+      <c s="32" r="A11"/>
+      <c s="81" r="B11">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C11">
+      <c t="s" s="24" r="C11">
         <v>29</v>
       </c>
-      <c s="73" r="D11">
+      <c s="77" r="D11">
         <v>3</v>
       </c>
-      <c s="12" r="E11"/>
-      <c s="12" r="F11"/>
-      <c s="39" r="G11"/>
-      <c s="21" r="H11"/>
-      <c s="39" r="I11"/>
-      <c s="39" r="J11"/>
-      <c s="21" r="K11"/>
-      <c s="39" r="L11"/>
-      <c s="39" r="M11"/>
-      <c s="21" r="N11"/>
-      <c s="39" r="O11"/>
-      <c s="39" r="P11"/>
-      <c s="49" r="Q11"/>
-      <c s="39" r="R11"/>
-      <c s="39" r="S11"/>
-      <c s="21" r="T11"/>
-      <c s="39" r="U11"/>
-      <c s="39" r="V11"/>
+      <c s="14" r="E11"/>
+      <c s="14" r="F11"/>
+      <c s="40" r="G11"/>
+      <c s="23" r="H11"/>
+      <c s="40" r="I11"/>
+      <c s="40" r="J11"/>
+      <c s="23" r="K11"/>
+      <c s="40" r="L11"/>
+      <c s="40" r="M11"/>
+      <c s="23" r="N11"/>
+      <c s="40" r="O11"/>
+      <c s="40" r="P11"/>
+      <c s="51" r="Q11"/>
+      <c s="40" r="R11"/>
+      <c s="40" r="S11"/>
+      <c s="23" r="T11"/>
+      <c s="40" r="U11"/>
+      <c s="40" r="V11"/>
     </row>
     <row r="12">
-      <c s="30" r="A12"/>
-      <c s="77" r="B12">
+      <c s="32" r="A12"/>
+      <c s="81" r="B12">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C12">
+      <c t="s" s="24" r="C12">
         <v>30</v>
       </c>
-      <c s="73" r="D12">
+      <c s="77" r="D12">
         <v>6</v>
       </c>
-      <c s="18" r="E12"/>
-      <c s="12" r="F12"/>
-      <c s="12" r="G12"/>
-      <c s="21" r="H12"/>
-      <c s="39" r="I12"/>
-      <c s="39" r="J12"/>
-      <c s="21" r="K12"/>
-      <c s="39" r="L12"/>
-      <c s="39" r="M12"/>
-      <c s="21" r="N12"/>
-      <c s="39" r="O12"/>
-      <c s="39" r="P12"/>
-      <c s="49" r="Q12"/>
-      <c s="39" r="R12"/>
-      <c s="39" r="S12"/>
-      <c s="21" r="T12"/>
-      <c s="39" r="U12"/>
-      <c s="39" r="V12"/>
+      <c s="20" r="E12"/>
+      <c s="14" r="F12"/>
+      <c s="14" r="G12"/>
+      <c s="23" r="H12"/>
+      <c s="40" r="I12"/>
+      <c s="40" r="J12"/>
+      <c s="23" r="K12"/>
+      <c s="40" r="L12"/>
+      <c s="40" r="M12"/>
+      <c s="23" r="N12"/>
+      <c s="40" r="O12"/>
+      <c s="40" r="P12"/>
+      <c s="51" r="Q12"/>
+      <c s="40" r="R12"/>
+      <c s="40" r="S12"/>
+      <c s="23" r="T12"/>
+      <c s="40" r="U12"/>
+      <c s="40" r="V12"/>
     </row>
     <row r="13">
-      <c s="30" r="A13"/>
-      <c s="77" r="B13">
+      <c s="32" r="A13"/>
+      <c s="81" r="B13">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C13">
+      <c t="s" s="24" r="C13">
         <v>31</v>
       </c>
-      <c s="73" r="D13">
+      <c s="77" r="D13">
         <v>1</v>
       </c>
-      <c s="12" r="E13"/>
-      <c s="12" r="F13"/>
-      <c s="12" r="G13"/>
-      <c s="12" r="H13"/>
-      <c s="12" r="I13"/>
-      <c s="12" r="J13"/>
-      <c s="12" r="K13"/>
-      <c s="12" r="L13"/>
-      <c s="12" r="M13"/>
-      <c s="12" r="N13"/>
-      <c s="12" r="O13"/>
-      <c s="12" r="P13"/>
-      <c s="49" r="Q13"/>
-      <c s="12" r="R13"/>
-      <c s="12" r="S13"/>
-      <c s="12" r="T13"/>
-      <c s="12" r="U13"/>
-      <c s="12" r="V13"/>
+      <c s="14" r="E13"/>
+      <c s="14" r="F13"/>
+      <c s="14" r="G13"/>
+      <c s="14" r="H13"/>
+      <c s="14" r="I13"/>
+      <c s="14" r="J13"/>
+      <c s="14" r="K13"/>
+      <c s="14" r="L13"/>
+      <c s="14" r="M13"/>
+      <c s="14" r="N13"/>
+      <c s="14" r="O13"/>
+      <c s="14" r="P13"/>
+      <c s="51" r="Q13"/>
+      <c s="14" r="R13"/>
+      <c s="14" r="S13"/>
+      <c s="14" r="T13"/>
+      <c s="14" r="U13"/>
+      <c s="14" r="V13"/>
     </row>
     <row r="14">
-      <c s="30" r="A14"/>
-      <c s="32" r="B14"/>
-      <c t="s" s="66" r="C14">
+      <c s="32" r="A14"/>
+      <c s="34" r="B14"/>
+      <c t="s" s="69" r="C14">
         <v>32</v>
       </c>
-      <c s="58" r="D14"/>
-      <c s="58" r="E14"/>
-      <c s="58" r="F14"/>
-      <c s="31" r="G14"/>
-      <c s="31" r="H14"/>
-      <c s="31" r="I14"/>
-      <c s="31" r="J14"/>
-      <c s="31" r="K14"/>
-      <c s="31" r="L14"/>
-      <c s="31" r="M14"/>
-      <c s="31" r="N14"/>
-      <c s="31" r="O14"/>
-      <c s="58" r="P14"/>
-      <c s="58" r="Q14"/>
-      <c s="58" r="R14"/>
-      <c s="58" r="S14"/>
-      <c s="58" r="T14"/>
-      <c s="31" r="U14"/>
-      <c s="31" r="V14"/>
+      <c s="60" r="D14"/>
+      <c s="60" r="E14"/>
+      <c s="60" r="F14"/>
+      <c s="33" r="G14"/>
+      <c s="33" r="H14"/>
+      <c s="33" r="I14"/>
+      <c s="33" r="J14"/>
+      <c s="33" r="K14"/>
+      <c s="33" r="L14"/>
+      <c s="33" r="M14"/>
+      <c s="33" r="N14"/>
+      <c s="33" r="O14"/>
+      <c s="60" r="P14"/>
+      <c s="60" r="Q14"/>
+      <c s="60" r="R14"/>
+      <c s="60" r="S14"/>
+      <c s="60" r="T14"/>
+      <c s="33" r="U14"/>
+      <c s="33" r="V14"/>
     </row>
     <row r="15">
-      <c s="30" r="A15"/>
-      <c s="77" r="B15">
+      <c s="32" r="A15"/>
+      <c s="81" r="B15">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C15">
+      <c t="s" s="24" r="C15">
         <v>33</v>
       </c>
-      <c s="73" r="D15">
+      <c s="77" r="D15">
         <v>8</v>
       </c>
-      <c s="21" r="E15"/>
-      <c s="62" r="F15"/>
-      <c s="15" r="G15"/>
-      <c s="15" r="H15"/>
-      <c s="15" r="I15"/>
-      <c s="15" r="J15"/>
-      <c s="3" r="K15"/>
-      <c s="3" r="L15"/>
-      <c s="3" r="M15"/>
-      <c s="56" r="N15"/>
-      <c s="56" r="O15"/>
-      <c s="67" r="P15"/>
-      <c s="49" r="Q15"/>
-      <c s="16" r="R15"/>
-      <c s="39" r="S15"/>
-      <c s="27" r="T15"/>
-      <c s="41" r="U15"/>
-      <c s="35" r="V15"/>
+      <c s="23" r="E15"/>
+      <c s="64" r="F15"/>
+      <c s="17" r="G15"/>
+      <c s="17" r="H15"/>
+      <c s="17" r="I15"/>
+      <c s="17" r="J15"/>
+      <c s="4" r="K15"/>
+      <c s="4" r="L15"/>
+      <c s="4" r="M15"/>
+      <c s="58" r="N15"/>
+      <c s="58" r="O15"/>
+      <c s="70" r="P15"/>
+      <c s="51" r="Q15"/>
+      <c s="18" r="R15"/>
+      <c s="40" r="S15"/>
+      <c s="29" r="T15"/>
+      <c s="42" r="U15"/>
+      <c s="37" r="V15"/>
     </row>
     <row r="16">
-      <c s="30" r="A16"/>
-      <c s="77" r="B16">
+      <c s="32" r="A16"/>
+      <c s="81" r="B16">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C16">
+      <c t="s" s="24" r="C16">
         <v>34</v>
       </c>
-      <c s="73" r="D16">
+      <c s="77" r="D16">
         <v>10</v>
       </c>
-      <c s="21" r="E16"/>
-      <c s="39" r="F16"/>
-      <c s="71" r="G16"/>
-      <c s="74" r="H16"/>
-      <c s="74" r="I16"/>
-      <c s="74" r="J16"/>
-      <c s="74" r="K16"/>
-      <c s="74" r="L16"/>
-      <c s="74" r="M16"/>
-      <c s="3" r="N16"/>
-      <c s="3" r="O16"/>
-      <c s="56" r="P16"/>
-      <c s="11" r="Q16"/>
-      <c s="55" r="R16"/>
-      <c s="39" r="S16"/>
-      <c s="27" r="T16"/>
-      <c s="41" r="U16"/>
-      <c s="35" r="V16"/>
+      <c s="23" r="E16"/>
+      <c s="40" r="F16"/>
+      <c s="75" r="G16"/>
+      <c s="78" r="H16"/>
+      <c s="78" r="I16"/>
+      <c s="78" r="J16"/>
+      <c s="78" r="K16"/>
+      <c s="78" r="L16"/>
+      <c s="78" r="M16"/>
+      <c s="4" r="N16"/>
+      <c s="4" r="O16"/>
+      <c s="58" r="P16"/>
+      <c s="13" r="Q16"/>
+      <c s="57" r="R16"/>
+      <c s="40" r="S16"/>
+      <c s="29" r="T16"/>
+      <c s="42" r="U16"/>
+      <c s="37" r="V16"/>
     </row>
     <row r="17">
-      <c s="30" r="A17"/>
-      <c s="77" r="B17">
+      <c s="32" r="A17"/>
+      <c s="81" r="B17">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C17">
+      <c t="s" s="24" r="C17">
         <v>35</v>
       </c>
-      <c s="73" r="D17">
+      <c s="77" r="D17">
         <v>10</v>
       </c>
-      <c s="21" r="E17"/>
-      <c s="39" r="F17"/>
-      <c s="62" r="G17"/>
-      <c s="56" r="H17"/>
-      <c s="56" r="I17"/>
-      <c s="56" r="J17"/>
-      <c s="15" r="K17"/>
-      <c s="15" r="L17"/>
-      <c s="15" r="M17"/>
-      <c s="74" r="N17"/>
-      <c s="74" r="O17"/>
-      <c s="74" r="P17"/>
-      <c s="11" r="Q17"/>
-      <c s="3" r="R17"/>
-      <c s="76" r="S17"/>
-      <c s="51" r="T17"/>
-      <c s="4" r="U17"/>
-      <c s="54" r="V17"/>
+      <c s="23" r="E17"/>
+      <c s="40" r="F17"/>
+      <c s="64" r="G17"/>
+      <c s="58" r="H17"/>
+      <c s="58" r="I17"/>
+      <c s="58" r="J17"/>
+      <c s="17" r="K17"/>
+      <c s="17" r="L17"/>
+      <c s="17" r="M17"/>
+      <c s="78" r="N17"/>
+      <c s="78" r="O17"/>
+      <c s="78" r="P17"/>
+      <c s="13" r="Q17"/>
+      <c s="4" r="R17"/>
+      <c s="80" r="S17"/>
+      <c s="53" r="T17"/>
+      <c s="5" r="U17"/>
+      <c s="56" r="V17"/>
     </row>
     <row r="18">
-      <c s="30" r="A18"/>
-      <c s="77" r="B18">
+      <c s="32" r="A18"/>
+      <c s="81" r="B18">
         <v>4</v>
       </c>
-      <c t="s" s="22" r="C18">
+      <c t="s" s="24" r="C18">
         <v>36</v>
       </c>
-      <c s="73" r="D18">
+      <c s="77" r="D18">
         <v>4</v>
       </c>
-      <c s="21" r="E18"/>
-      <c s="39" r="F18"/>
-      <c s="39" r="G18"/>
-      <c s="65" r="H18"/>
-      <c s="57" r="I18"/>
-      <c s="70" r="J18"/>
-      <c s="65" r="K18"/>
-      <c s="57" r="L18"/>
-      <c s="57" r="M18"/>
-      <c s="65" r="N18"/>
-      <c s="57" r="O18"/>
-      <c s="57" r="P18"/>
-      <c s="48" r="Q18"/>
-      <c s="15" r="R18"/>
-      <c s="54" r="S18"/>
-      <c s="25" r="T18"/>
+      <c s="23" r="E18"/>
+      <c s="40" r="F18"/>
+      <c s="40" r="G18"/>
+      <c s="68" r="H18"/>
+      <c s="59" r="I18"/>
+      <c s="73" r="J18"/>
+      <c s="68" r="K18"/>
+      <c s="59" r="L18"/>
+      <c s="59" r="M18"/>
+      <c s="68" r="N18"/>
+      <c s="59" r="O18"/>
+      <c s="59" r="P18"/>
+      <c s="50" r="Q18"/>
+      <c s="17" r="R18"/>
+      <c s="56" r="S18"/>
+      <c s="27" r="T18"/>
       <c s="1" r="U18"/>
-      <c s="59" r="V18"/>
+      <c s="61" r="V18"/>
     </row>
     <row r="19">
-      <c s="30" r="A19"/>
-      <c s="77" r="B19">
+      <c s="32" r="A19"/>
+      <c s="81" r="B19">
         <v>5</v>
       </c>
-      <c t="s" s="22" r="C19">
+      <c t="s" s="24" r="C19">
         <v>37</v>
       </c>
-      <c s="73" r="D19">
+      <c s="77" r="D19">
         <v>2</v>
       </c>
-      <c s="21" r="E19"/>
-      <c s="39" r="F19"/>
-      <c s="39" r="G19"/>
-      <c s="21" r="H19"/>
-      <c s="39" r="I19"/>
-      <c s="39" r="J19"/>
-      <c s="21" r="K19"/>
-      <c s="39" r="L19"/>
-      <c s="39" r="M19"/>
-      <c s="43" r="N19"/>
-      <c s="47" r="O19"/>
-      <c s="16" r="P19"/>
-      <c s="49" r="Q19"/>
-      <c s="57" r="R19"/>
-      <c s="12" r="S19"/>
-      <c s="25" r="T19"/>
-      <c s="4" r="U19"/>
-      <c s="54" r="V19"/>
+      <c s="23" r="E19"/>
+      <c s="40" r="F19"/>
+      <c s="40" r="G19"/>
+      <c s="23" r="H19"/>
+      <c s="40" r="I19"/>
+      <c s="40" r="J19"/>
+      <c s="23" r="K19"/>
+      <c s="40" r="L19"/>
+      <c s="40" r="M19"/>
+      <c s="45" r="N19"/>
+      <c s="49" r="O19"/>
+      <c s="18" r="P19"/>
+      <c s="51" r="Q19"/>
+      <c s="59" r="R19"/>
+      <c s="14" r="S19"/>
+      <c s="27" r="T19"/>
+      <c s="5" r="U19"/>
+      <c s="56" r="V19"/>
     </row>
     <row r="20">
-      <c s="30" r="A20"/>
-      <c s="77" r="B20">
+      <c s="32" r="A20"/>
+      <c s="81" r="B20">
         <v>6</v>
       </c>
-      <c t="s" s="22" r="C20">
+      <c t="s" s="24" r="C20">
         <v>38</v>
       </c>
-      <c s="73" r="D20">
+      <c s="77" r="D20">
         <v>6</v>
       </c>
-      <c s="21" r="E20"/>
-      <c s="39" r="F20"/>
-      <c s="39" r="G20"/>
-      <c s="21" r="H20"/>
-      <c s="39" r="I20"/>
-      <c s="39" r="J20"/>
-      <c s="21" r="K20"/>
-      <c s="39" r="L20"/>
-      <c s="62" r="M20"/>
-      <c s="15" r="N20"/>
-      <c s="15" r="O20"/>
-      <c s="15" r="P20"/>
-      <c s="45" r="Q20"/>
-      <c s="39" r="R20"/>
-      <c s="39" r="S20"/>
-      <c s="21" r="T20"/>
-      <c s="39" r="U20"/>
-      <c s="39" r="V20"/>
+      <c s="23" r="E20"/>
+      <c s="40" r="F20"/>
+      <c s="40" r="G20"/>
+      <c s="23" r="H20"/>
+      <c s="40" r="I20"/>
+      <c s="40" r="J20"/>
+      <c s="23" r="K20"/>
+      <c s="40" r="L20"/>
+      <c s="64" r="M20"/>
+      <c s="17" r="N20"/>
+      <c s="17" r="O20"/>
+      <c s="17" r="P20"/>
+      <c s="47" r="Q20"/>
+      <c s="40" r="R20"/>
+      <c s="40" r="S20"/>
+      <c s="23" r="T20"/>
+      <c s="40" r="U20"/>
+      <c s="40" r="V20"/>
     </row>
     <row r="21">
-      <c s="30" r="A21"/>
-      <c s="32" r="B21"/>
-      <c t="s" s="68" r="C21">
+      <c s="32" r="A21"/>
+      <c s="34" r="B21"/>
+      <c t="s" s="71" r="C21">
         <v>39</v>
       </c>
-      <c s="73" r="D21"/>
-      <c s="58" r="E21"/>
-      <c s="58" r="F21"/>
-      <c s="58" r="G21"/>
-      <c s="58" r="H21"/>
-      <c s="58" r="I21"/>
-      <c s="58" r="J21"/>
-      <c s="58" r="K21"/>
-      <c s="58" r="L21"/>
-      <c s="58" r="M21"/>
-      <c s="78" r="N21"/>
-      <c s="78" r="O21"/>
-      <c s="78" r="P21"/>
-      <c s="58" r="Q21"/>
-      <c s="58" r="R21"/>
-      <c s="58" r="S21"/>
-      <c s="58" r="T21"/>
-      <c s="58" r="U21"/>
-      <c s="58" r="V21"/>
+      <c s="77" r="D21"/>
+      <c s="60" r="E21"/>
+      <c s="60" r="F21"/>
+      <c s="60" r="G21"/>
+      <c s="60" r="H21"/>
+      <c s="60" r="I21"/>
+      <c s="60" r="J21"/>
+      <c s="60" r="K21"/>
+      <c s="60" r="L21"/>
+      <c s="60" r="M21"/>
+      <c s="82" r="N21"/>
+      <c s="82" r="O21"/>
+      <c s="82" r="P21"/>
+      <c s="60" r="Q21"/>
+      <c s="60" r="R21"/>
+      <c s="60" r="S21"/>
+      <c s="60" r="T21"/>
+      <c s="60" r="U21"/>
+      <c s="60" r="V21"/>
     </row>
     <row r="22">
-      <c s="30" r="A22"/>
-      <c s="77" r="B22">
+      <c s="32" r="A22"/>
+      <c s="81" r="B22">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C22">
+      <c t="s" s="24" r="C22">
         <v>40</v>
       </c>
-      <c s="73" r="D22">
+      <c s="77" r="D22">
         <v>1</v>
       </c>
-      <c s="21" r="E22"/>
-      <c s="12" r="F22"/>
-      <c s="16" r="G22"/>
-      <c s="43" r="H22"/>
-      <c s="39" r="I22"/>
-      <c s="39" r="J22"/>
-      <c s="21" r="K22"/>
-      <c s="28" r="L22"/>
-      <c s="28" r="M22"/>
-      <c s="21" r="N22"/>
-      <c s="28" r="O22"/>
-      <c s="39" r="P22"/>
-      <c s="49" r="Q22"/>
-      <c s="39" r="R22"/>
-      <c s="39" r="S22"/>
-      <c s="21" r="T22"/>
-      <c s="39" r="U22"/>
-      <c s="39" r="V22"/>
+      <c s="23" r="E22"/>
+      <c s="14" r="F22"/>
+      <c s="18" r="G22"/>
+      <c s="45" r="H22"/>
+      <c s="40" r="I22"/>
+      <c s="40" r="J22"/>
+      <c s="23" r="K22"/>
+      <c s="30" r="L22"/>
+      <c s="30" r="M22"/>
+      <c s="23" r="N22"/>
+      <c s="30" r="O22"/>
+      <c s="40" r="P22"/>
+      <c s="51" r="Q22"/>
+      <c s="40" r="R22"/>
+      <c s="40" r="S22"/>
+      <c s="23" r="T22"/>
+      <c s="40" r="U22"/>
+      <c s="40" r="V22"/>
     </row>
     <row r="23">
-      <c s="30" r="A23"/>
-      <c s="77" r="B23">
+      <c s="32" r="A23"/>
+      <c s="81" r="B23">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C23">
+      <c t="s" s="24" r="C23">
         <v>41</v>
       </c>
-      <c s="73" r="D23">
+      <c s="77" r="D23">
         <v>4</v>
       </c>
-      <c s="21" r="E23"/>
-      <c s="62" r="F23"/>
-      <c s="56" r="G23"/>
-      <c s="56" r="H23"/>
-      <c s="50" r="I23"/>
-      <c s="12" r="J23"/>
-      <c s="21" r="K23"/>
-      <c s="28" r="L23"/>
-      <c s="28" r="M23"/>
-      <c s="21" r="N23"/>
-      <c s="28" r="O23"/>
-      <c s="39" r="P23"/>
-      <c s="49" r="Q23"/>
-      <c s="39" r="R23"/>
-      <c s="39" r="S23"/>
-      <c s="21" r="T23"/>
-      <c s="39" r="U23"/>
-      <c s="39" r="V23"/>
+      <c s="23" r="E23"/>
+      <c s="64" r="F23"/>
+      <c s="58" r="G23"/>
+      <c s="58" r="H23"/>
+      <c s="52" r="I23"/>
+      <c s="14" r="J23"/>
+      <c s="23" r="K23"/>
+      <c s="30" r="L23"/>
+      <c s="30" r="M23"/>
+      <c s="23" r="N23"/>
+      <c s="30" r="O23"/>
+      <c s="40" r="P23"/>
+      <c s="51" r="Q23"/>
+      <c s="40" r="R23"/>
+      <c s="40" r="S23"/>
+      <c s="23" r="T23"/>
+      <c s="40" r="U23"/>
+      <c s="40" r="V23"/>
     </row>
     <row r="24">
-      <c s="30" r="A24"/>
-      <c s="77" r="B24">
+      <c s="32" r="A24"/>
+      <c s="81" r="B24">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C24">
+      <c t="s" s="24" r="C24">
         <v>42</v>
       </c>
-      <c s="73" r="D24">
+      <c s="77" r="D24">
         <v>8</v>
       </c>
-      <c s="21" r="E24"/>
-      <c s="39" r="F24"/>
-      <c s="71" r="G24"/>
-      <c s="3" r="H24"/>
-      <c s="76" r="I24"/>
-      <c s="50" r="J24"/>
-      <c s="12" r="K24"/>
-      <c s="12" r="L24"/>
-      <c s="12" r="M24"/>
-      <c s="21" r="N24"/>
-      <c s="28" r="O24"/>
-      <c s="39" r="P24"/>
-      <c s="49" r="Q24"/>
-      <c s="39" r="R24"/>
-      <c s="39" r="S24"/>
-      <c s="21" r="T24"/>
-      <c s="39" r="U24"/>
-      <c s="39" r="V24"/>
+      <c s="23" r="E24"/>
+      <c s="40" r="F24"/>
+      <c s="75" r="G24"/>
+      <c s="4" r="H24"/>
+      <c s="80" r="I24"/>
+      <c s="52" r="J24"/>
+      <c s="14" r="K24"/>
+      <c s="14" r="L24"/>
+      <c s="14" r="M24"/>
+      <c s="23" r="N24"/>
+      <c s="30" r="O24"/>
+      <c s="40" r="P24"/>
+      <c s="51" r="Q24"/>
+      <c s="40" r="R24"/>
+      <c s="40" r="S24"/>
+      <c s="23" r="T24"/>
+      <c s="40" r="U24"/>
+      <c s="40" r="V24"/>
     </row>
     <row r="25">
-      <c s="30" r="A25"/>
-      <c s="77" r="B25">
+      <c s="32" r="A25"/>
+      <c s="81" r="B25">
         <v>4</v>
       </c>
-      <c t="s" s="22" r="C25">
+      <c t="s" s="24" r="C25">
         <v>43</v>
       </c>
-      <c s="73" r="D25">
+      <c s="77" r="D25">
         <v>4</v>
       </c>
-      <c s="21" r="E25"/>
-      <c s="39" r="F25"/>
-      <c s="39" r="G25"/>
-      <c s="65" r="H25"/>
-      <c s="71" r="I25"/>
-      <c s="50" r="J25"/>
-      <c s="21" r="K25"/>
-      <c s="28" r="L25"/>
-      <c s="28" r="M25"/>
-      <c s="12" r="N25"/>
-      <c s="12" r="O25"/>
-      <c s="12" r="P25"/>
-      <c s="49" r="Q25"/>
-      <c s="39" r="R25"/>
-      <c s="39" r="S25"/>
-      <c s="21" r="T25"/>
-      <c s="39" r="U25"/>
-      <c s="39" r="V25"/>
+      <c s="23" r="E25"/>
+      <c s="40" r="F25"/>
+      <c s="40" r="G25"/>
+      <c s="68" r="H25"/>
+      <c s="75" r="I25"/>
+      <c s="52" r="J25"/>
+      <c s="23" r="K25"/>
+      <c s="30" r="L25"/>
+      <c s="30" r="M25"/>
+      <c s="14" r="N25"/>
+      <c s="14" r="O25"/>
+      <c s="14" r="P25"/>
+      <c s="51" r="Q25"/>
+      <c s="40" r="R25"/>
+      <c s="40" r="S25"/>
+      <c s="23" r="T25"/>
+      <c s="40" r="U25"/>
+      <c s="40" r="V25"/>
     </row>
     <row r="26">
-      <c s="30" r="A26"/>
-      <c s="77" r="B26"/>
-      <c t="s" s="68" r="C26">
+      <c s="32" r="A26"/>
+      <c s="81" r="B26"/>
+      <c t="s" s="71" r="C26">
         <v>44</v>
       </c>
-      <c s="73" r="D26"/>
-      <c s="58" r="E26"/>
-      <c s="58" r="F26"/>
-      <c s="58" r="G26"/>
-      <c s="58" r="H26"/>
-      <c s="58" r="I26"/>
-      <c s="58" r="J26"/>
-      <c s="58" r="K26"/>
-      <c s="58" r="L26"/>
-      <c s="58" r="M26"/>
-      <c s="58" r="N26"/>
-      <c s="58" r="O26"/>
-      <c s="58" r="P26"/>
-      <c s="58" r="Q26"/>
-      <c s="58" r="R26"/>
-      <c s="58" r="S26"/>
-      <c s="58" r="T26"/>
-      <c s="58" r="U26"/>
-      <c s="58" r="V26"/>
+      <c s="77" r="D26"/>
+      <c s="60" r="E26"/>
+      <c s="60" r="F26"/>
+      <c s="60" r="G26"/>
+      <c s="60" r="H26"/>
+      <c s="60" r="I26"/>
+      <c s="60" r="J26"/>
+      <c s="60" r="K26"/>
+      <c s="60" r="L26"/>
+      <c s="60" r="M26"/>
+      <c s="60" r="N26"/>
+      <c s="60" r="O26"/>
+      <c s="60" r="P26"/>
+      <c s="60" r="Q26"/>
+      <c s="60" r="R26"/>
+      <c s="60" r="S26"/>
+      <c s="60" r="T26"/>
+      <c s="60" r="U26"/>
+      <c s="60" r="V26"/>
     </row>
     <row r="27">
-      <c s="30" r="A27"/>
-      <c s="77" r="B27">
+      <c s="32" r="A27"/>
+      <c s="81" r="B27">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C27">
+      <c t="s" s="24" r="C27">
         <v>45</v>
       </c>
-      <c s="73" r="D27">
+      <c s="77" r="D27">
         <v>1</v>
       </c>
-      <c s="12" r="E27"/>
-      <c s="39" r="F27"/>
-      <c s="39" r="G27"/>
-      <c s="21" r="H27"/>
-      <c s="39" r="I27"/>
-      <c s="39" r="J27"/>
-      <c s="21" r="K27"/>
-      <c s="39" r="L27"/>
-      <c s="39" r="M27"/>
-      <c s="21" r="N27"/>
-      <c s="39" r="O27"/>
-      <c s="39" r="P27"/>
-      <c s="49" r="Q27"/>
-      <c s="39" r="R27"/>
-      <c s="39" r="S27"/>
-      <c s="21" r="T27"/>
-      <c s="39" r="U27"/>
-      <c s="39" r="V27"/>
+      <c s="14" r="E27"/>
+      <c s="40" r="F27"/>
+      <c s="40" r="G27"/>
+      <c s="23" r="H27"/>
+      <c s="40" r="I27"/>
+      <c s="40" r="J27"/>
+      <c s="23" r="K27"/>
+      <c s="40" r="L27"/>
+      <c s="40" r="M27"/>
+      <c s="23" r="N27"/>
+      <c s="40" r="O27"/>
+      <c s="40" r="P27"/>
+      <c s="51" r="Q27"/>
+      <c s="40" r="R27"/>
+      <c s="40" r="S27"/>
+      <c s="23" r="T27"/>
+      <c s="40" r="U27"/>
+      <c s="40" r="V27"/>
     </row>
     <row r="28">
-      <c s="30" r="A28"/>
-      <c s="77" r="B28">
+      <c s="32" r="A28"/>
+      <c s="81" r="B28">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C28">
+      <c t="s" s="24" r="C28">
         <v>46</v>
       </c>
-      <c s="73" r="D28">
+      <c s="77" r="D28">
         <v>3</v>
       </c>
-      <c s="12" r="E28"/>
-      <c s="12" r="F28"/>
-      <c s="39" r="G28"/>
-      <c s="21" r="H28"/>
-      <c s="39" r="I28"/>
-      <c s="39" r="J28"/>
-      <c s="21" r="K28"/>
-      <c s="39" r="L28"/>
-      <c s="39" r="M28"/>
-      <c s="21" r="N28"/>
-      <c s="39" r="O28"/>
-      <c s="39" r="P28"/>
-      <c s="49" r="Q28"/>
-      <c s="39" r="R28"/>
-      <c s="39" r="S28"/>
-      <c s="21" r="T28"/>
-      <c s="39" r="U28"/>
-      <c s="39" r="V28"/>
+      <c s="14" r="E28"/>
+      <c s="14" r="F28"/>
+      <c s="40" r="G28"/>
+      <c s="23" r="H28"/>
+      <c s="40" r="I28"/>
+      <c s="40" r="J28"/>
+      <c s="23" r="K28"/>
+      <c s="40" r="L28"/>
+      <c s="40" r="M28"/>
+      <c s="23" r="N28"/>
+      <c s="40" r="O28"/>
+      <c s="40" r="P28"/>
+      <c s="51" r="Q28"/>
+      <c s="40" r="R28"/>
+      <c s="40" r="S28"/>
+      <c s="23" r="T28"/>
+      <c s="40" r="U28"/>
+      <c s="40" r="V28"/>
     </row>
     <row r="29">
-      <c s="30" r="A29"/>
-      <c s="77" r="B29">
+      <c s="32" r="A29"/>
+      <c s="81" r="B29">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C29">
+      <c t="s" s="24" r="C29">
         <v>47</v>
       </c>
-      <c s="73" r="D29">
+      <c s="77" r="D29">
         <v>2</v>
       </c>
-      <c s="12" r="E29"/>
-      <c s="12" r="F29"/>
-      <c s="12" r="G29"/>
-      <c s="21" r="H29"/>
-      <c s="39" r="I29"/>
-      <c s="39" r="J29"/>
-      <c s="21" r="K29"/>
-      <c s="39" r="L29"/>
-      <c s="39" r="M29"/>
-      <c s="21" r="N29"/>
-      <c s="39" r="O29"/>
-      <c s="39" r="P29"/>
-      <c s="49" r="Q29"/>
-      <c s="16" r="R29"/>
-      <c s="16" r="S29"/>
-      <c s="43" r="T29"/>
-      <c s="16" r="U29"/>
-      <c s="16" r="V29"/>
+      <c s="14" r="E29"/>
+      <c s="14" r="F29"/>
+      <c s="14" r="G29"/>
+      <c s="23" r="H29"/>
+      <c s="40" r="I29"/>
+      <c s="40" r="J29"/>
+      <c s="23" r="K29"/>
+      <c s="40" r="L29"/>
+      <c s="40" r="M29"/>
+      <c s="23" r="N29"/>
+      <c s="40" r="O29"/>
+      <c s="40" r="P29"/>
+      <c s="51" r="Q29"/>
+      <c s="18" r="R29"/>
+      <c s="18" r="S29"/>
+      <c s="45" r="T29"/>
+      <c s="18" r="U29"/>
+      <c s="18" r="V29"/>
     </row>
     <row r="30">
-      <c s="30" r="A30"/>
-      <c s="77" r="B30">
+      <c s="32" r="A30"/>
+      <c s="81" r="B30">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C30">
+      <c t="s" s="24" r="C30">
         <v>48</v>
       </c>
-      <c s="73" r="D30">
+      <c s="77" r="D30">
         <v>4</v>
       </c>
-      <c s="12" r="E30"/>
-      <c s="12" r="F30"/>
-      <c s="12" r="G30"/>
-      <c s="21" r="H30"/>
-      <c s="39" r="I30"/>
-      <c s="39" r="J30"/>
-      <c s="21" r="K30"/>
-      <c s="39" r="L30"/>
-      <c s="39" r="M30"/>
-      <c s="21" r="N30"/>
-      <c s="39" r="O30"/>
-      <c s="39" r="P30"/>
-      <c s="48" r="Q30"/>
-      <c s="15" r="R30"/>
-      <c s="3" r="S30"/>
-      <c s="74" r="T30"/>
-      <c s="56" r="U30"/>
-      <c s="54" r="V30"/>
+      <c s="14" r="E30"/>
+      <c s="14" r="F30"/>
+      <c s="14" r="G30"/>
+      <c s="23" r="H30"/>
+      <c s="40" r="I30"/>
+      <c s="40" r="J30"/>
+      <c s="23" r="K30"/>
+      <c s="40" r="L30"/>
+      <c s="40" r="M30"/>
+      <c s="23" r="N30"/>
+      <c s="40" r="O30"/>
+      <c s="40" r="P30"/>
+      <c s="50" r="Q30"/>
+      <c s="17" r="R30"/>
+      <c s="4" r="S30"/>
+      <c s="78" r="T30"/>
+      <c s="58" r="U30"/>
+      <c s="56" r="V30"/>
     </row>
     <row r="31">
-      <c s="30" r="A31"/>
-      <c s="26" r="B31"/>
-      <c t="s" s="68" r="C31">
+      <c s="32" r="A31"/>
+      <c s="28" r="B31"/>
+      <c t="s" s="71" r="C31">
         <v>49</v>
       </c>
-      <c s="73" r="D31"/>
-      <c s="58" r="E31"/>
-      <c s="58" r="F31"/>
-      <c s="58" r="G31"/>
-      <c s="58" r="H31"/>
-      <c s="58" r="I31"/>
-      <c s="58" r="J31"/>
-      <c s="58" r="K31"/>
-      <c s="58" r="L31"/>
-      <c s="58" r="M31"/>
-      <c s="58" r="N31"/>
-      <c s="58" r="O31"/>
-      <c s="58" r="P31"/>
-      <c s="58" r="Q31"/>
-      <c s="78" r="R31"/>
-      <c s="78" r="S31"/>
-      <c s="78" r="T31"/>
-      <c s="78" r="U31"/>
-      <c s="58" r="V31"/>
+      <c s="77" r="D31"/>
+      <c s="60" r="E31"/>
+      <c s="60" r="F31"/>
+      <c s="60" r="G31"/>
+      <c s="60" r="H31"/>
+      <c s="60" r="I31"/>
+      <c s="60" r="J31"/>
+      <c s="60" r="K31"/>
+      <c s="60" r="L31"/>
+      <c s="60" r="M31"/>
+      <c s="60" r="N31"/>
+      <c s="60" r="O31"/>
+      <c s="60" r="P31"/>
+      <c s="60" r="Q31"/>
+      <c s="82" r="R31"/>
+      <c s="82" r="S31"/>
+      <c s="82" r="T31"/>
+      <c s="82" r="U31"/>
+      <c s="60" r="V31"/>
     </row>
     <row r="32">
-      <c s="30" r="A32"/>
-      <c s="77" r="B32">
+      <c s="32" r="A32"/>
+      <c s="81" r="B32">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C32">
+      <c t="s" s="24" r="C32">
         <v>50</v>
       </c>
-      <c s="73" r="D32">
+      <c s="77" r="D32">
         <v>1</v>
       </c>
-      <c s="12" r="E32"/>
-      <c s="12" r="F32"/>
-      <c s="39" r="G32"/>
-      <c s="21" r="H32"/>
-      <c s="39" r="I32"/>
-      <c s="39" r="J32"/>
-      <c s="43" r="K32"/>
-      <c s="16" r="L32"/>
-      <c s="16" r="M32"/>
-      <c s="21" r="N32"/>
-      <c s="39" r="O32"/>
-      <c s="39" r="P32"/>
-      <c s="49" r="Q32"/>
-      <c s="16" r="R32"/>
-      <c s="16" r="S32"/>
-      <c s="21" r="T32"/>
-      <c s="16" r="U32"/>
-      <c s="16" r="V32"/>
+      <c s="14" r="E32"/>
+      <c s="14" r="F32"/>
+      <c s="40" r="G32"/>
+      <c s="23" r="H32"/>
+      <c s="40" r="I32"/>
+      <c s="40" r="J32"/>
+      <c s="45" r="K32"/>
+      <c s="18" r="L32"/>
+      <c s="18" r="M32"/>
+      <c s="23" r="N32"/>
+      <c s="40" r="O32"/>
+      <c s="40" r="P32"/>
+      <c s="51" r="Q32"/>
+      <c s="18" r="R32"/>
+      <c s="18" r="S32"/>
+      <c s="23" r="T32"/>
+      <c s="18" r="U32"/>
+      <c s="18" r="V32"/>
     </row>
     <row r="33">
-      <c s="30" r="A33"/>
-      <c s="77" r="B33">
+      <c s="32" r="A33"/>
+      <c s="81" r="B33">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C33">
+      <c t="s" s="24" r="C33">
         <v>51</v>
       </c>
-      <c s="73" r="D33">
+      <c s="77" r="D33">
         <v>8</v>
       </c>
-      <c s="21" r="E33"/>
-      <c s="39" r="F33"/>
-      <c s="16" r="G33"/>
-      <c s="43" r="H33"/>
-      <c s="16" r="I33"/>
-      <c s="72" r="J33"/>
-      <c s="3" r="K33"/>
-      <c s="3" r="L33"/>
-      <c s="3" r="M33"/>
-      <c s="59" r="N33"/>
-      <c s="12" r="O33"/>
-      <c s="12" r="P33"/>
-      <c s="48" r="Q33"/>
-      <c s="74" r="R33"/>
-      <c s="74" r="S33"/>
-      <c s="63" r="T33"/>
-      <c s="4" r="U33"/>
-      <c s="54" r="V33"/>
+      <c s="23" r="E33"/>
+      <c s="40" r="F33"/>
+      <c s="18" r="G33"/>
+      <c s="45" r="H33"/>
+      <c s="18" r="I33"/>
+      <c s="76" r="J33"/>
+      <c s="4" r="K33"/>
+      <c s="4" r="L33"/>
+      <c s="4" r="M33"/>
+      <c s="61" r="N33"/>
+      <c s="14" r="O33"/>
+      <c s="14" r="P33"/>
+      <c s="50" r="Q33"/>
+      <c s="78" r="R33"/>
+      <c s="78" r="S33"/>
+      <c s="65" r="T33"/>
+      <c s="5" r="U33"/>
+      <c s="56" r="V33"/>
     </row>
     <row r="34">
-      <c s="30" r="A34"/>
-      <c s="77" r="B34">
+      <c s="32" r="A34"/>
+      <c s="81" r="B34">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C34">
+      <c t="s" s="24" r="C34">
         <v>52</v>
       </c>
-      <c s="73" r="D34">
+      <c s="77" r="D34">
         <v>4</v>
       </c>
-      <c s="21" r="E34"/>
-      <c s="62" r="F34"/>
-      <c s="3" r="G34"/>
-      <c s="3" r="H34"/>
-      <c s="56" r="I34"/>
-      <c s="56" r="J34"/>
-      <c s="56" r="K34"/>
-      <c s="15" r="L34"/>
-      <c s="15" r="M34"/>
-      <c s="74" r="N34"/>
+      <c s="23" r="E34"/>
+      <c s="64" r="F34"/>
+      <c s="4" r="G34"/>
+      <c s="4" r="H34"/>
+      <c s="58" r="I34"/>
+      <c s="58" r="J34"/>
+      <c s="58" r="K34"/>
+      <c s="17" r="L34"/>
+      <c s="17" r="M34"/>
+      <c s="78" r="N34"/>
       <c s="2" r="O34"/>
-      <c s="39" r="P34"/>
-      <c s="49" r="Q34"/>
-      <c s="57" r="R34"/>
-      <c s="57" r="S34"/>
-      <c s="21" r="T34"/>
-      <c s="39" r="U34"/>
-      <c s="39" r="V34"/>
+      <c s="40" r="P34"/>
+      <c s="51" r="Q34"/>
+      <c s="59" r="R34"/>
+      <c s="59" r="S34"/>
+      <c s="23" r="T34"/>
+      <c s="40" r="U34"/>
+      <c s="40" r="V34"/>
     </row>
     <row r="35">
-      <c s="30" r="A35"/>
-      <c s="77" r="B35">
+      <c s="32" r="A35"/>
+      <c s="81" r="B35">
         <v>4</v>
       </c>
-      <c t="s" s="22" r="C35">
+      <c t="s" s="24" r="C35">
         <v>53</v>
       </c>
-      <c s="73" r="D35">
+      <c s="77" r="D35">
         <v>3</v>
       </c>
-      <c s="21" r="E35"/>
-      <c s="62" r="F35"/>
-      <c s="74" r="G35"/>
-      <c s="74" r="H35"/>
-      <c s="46" r="I35"/>
-      <c s="57" r="J35"/>
-      <c s="65" r="K35"/>
-      <c s="57" r="L35"/>
-      <c s="57" r="M35"/>
-      <c s="65" r="N35"/>
-      <c s="39" r="O35"/>
-      <c s="39" r="P35"/>
-      <c s="49" r="Q35"/>
-      <c s="39" r="R35"/>
-      <c s="39" r="S35"/>
-      <c s="21" r="T35"/>
-      <c s="39" r="U35"/>
-      <c s="39" r="V35"/>
+      <c s="23" r="E35"/>
+      <c s="64" r="F35"/>
+      <c s="78" r="G35"/>
+      <c s="78" r="H35"/>
+      <c s="48" r="I35"/>
+      <c s="59" r="J35"/>
+      <c s="68" r="K35"/>
+      <c s="59" r="L35"/>
+      <c s="59" r="M35"/>
+      <c s="68" r="N35"/>
+      <c s="40" r="O35"/>
+      <c s="40" r="P35"/>
+      <c s="51" r="Q35"/>
+      <c s="40" r="R35"/>
+      <c s="40" r="S35"/>
+      <c s="23" r="T35"/>
+      <c s="40" r="U35"/>
+      <c s="40" r="V35"/>
     </row>
     <row r="36">
-      <c s="30" r="A36"/>
-      <c s="26" r="B36"/>
-      <c s="6" r="C36"/>
-      <c s="9" r="D36">
+      <c s="32" r="A36"/>
+      <c s="28" r="B36"/>
+      <c s="7" r="C36"/>
+      <c s="11" r="D36">
         <f>SUM(D15:D35)</f>
         <v>83</v>
       </c>
-      <c s="33" r="E36"/>
-      <c s="33" r="F36"/>
-      <c s="5" r="G36"/>
-      <c s="5" r="H36"/>
-      <c s="33" r="I36"/>
-      <c s="33" r="J36"/>
-      <c s="33" r="K36"/>
-      <c s="33" r="L36"/>
-      <c s="33" r="M36"/>
-      <c s="33" r="N36"/>
-      <c s="33" r="O36"/>
-      <c s="33" r="P36"/>
-      <c s="33" r="Q36"/>
-      <c s="33" r="R36"/>
-      <c s="33" r="S36"/>
-      <c s="33" r="T36"/>
-      <c s="33" r="U36"/>
-      <c s="33" r="V36"/>
+      <c s="35" r="E36"/>
+      <c s="35" r="F36"/>
+      <c s="6" r="G36"/>
+      <c s="6" r="H36"/>
+      <c s="35" r="I36"/>
+      <c s="35" r="J36"/>
+      <c s="35" r="K36"/>
+      <c s="35" r="L36"/>
+      <c s="35" r="M36"/>
+      <c s="35" r="N36"/>
+      <c s="35" r="O36"/>
+      <c s="35" r="P36"/>
+      <c s="35" r="Q36"/>
+      <c s="35" r="R36"/>
+      <c s="35" r="S36"/>
+      <c s="35" r="T36"/>
+      <c s="35" r="U36"/>
+      <c s="35" r="V36"/>
     </row>
     <row r="37">
-      <c s="13" r="A37"/>
-      <c s="34" r="B37"/>
-      <c s="34" r="C37"/>
-      <c s="34" r="D37"/>
-      <c s="44" r="E37"/>
-      <c s="44" r="F37"/>
-      <c s="44" r="G37"/>
-      <c s="34" r="H37"/>
-      <c s="34" r="I37"/>
-      <c s="34" r="J37"/>
-      <c s="34" r="K37"/>
-      <c s="34" r="L37"/>
-      <c s="34" r="M37"/>
-      <c s="34" r="N37"/>
-      <c s="34" r="O37"/>
-      <c s="34" r="P37"/>
-      <c s="34" r="Q37"/>
-      <c s="34" r="R37"/>
-      <c s="34" r="S37"/>
-      <c s="34" r="T37"/>
-      <c s="34" r="U37"/>
-      <c s="34" r="V37"/>
+      <c s="15" r="A37"/>
+      <c s="36" r="B37"/>
+      <c s="36" r="C37"/>
+      <c s="36" r="D37"/>
+      <c s="46" r="E37"/>
+      <c s="46" r="F37"/>
+      <c s="46" r="G37"/>
+      <c s="36" r="H37"/>
+      <c s="36" r="I37"/>
+      <c s="36" r="J37"/>
+      <c s="36" r="K37"/>
+      <c s="36" r="L37"/>
+      <c s="36" r="M37"/>
+      <c s="36" r="N37"/>
+      <c s="36" r="O37"/>
+      <c s="36" r="P37"/>
+      <c s="36" r="Q37"/>
+      <c s="36" r="R37"/>
+      <c s="36" r="S37"/>
+      <c s="36" r="T37"/>
+      <c s="36" r="U37"/>
+      <c s="36" r="V37"/>
     </row>
     <row r="38">
-      <c s="13" r="A38"/>
-      <c s="13" r="B38"/>
-      <c s="13" r="C38"/>
-      <c s="13" r="D38"/>
-      <c s="53" r="E38"/>
-      <c s="53" r="F38"/>
-      <c s="53" r="G38"/>
-      <c s="13" r="H38"/>
-      <c s="13" r="I38"/>
-      <c s="13" r="J38"/>
-      <c s="13" r="K38"/>
-      <c s="13" r="L38"/>
-      <c s="13" r="M38"/>
-      <c s="13" r="N38"/>
-      <c s="13" r="O38"/>
-      <c s="13" r="P38"/>
-      <c s="13" r="Q38"/>
-      <c s="13" r="R38"/>
-      <c s="13" r="S38"/>
-      <c s="13" r="T38"/>
-      <c s="13" r="U38"/>
-      <c s="13" r="V38"/>
+      <c s="15" r="A38"/>
+      <c s="15" r="B38"/>
+      <c s="15" r="C38"/>
+      <c s="15" r="D38"/>
+      <c s="55" r="E38"/>
+      <c s="55" r="F38"/>
+      <c s="55" r="G38"/>
+      <c s="15" r="H38"/>
+      <c s="15" r="I38"/>
+      <c s="15" r="J38"/>
+      <c s="15" r="K38"/>
+      <c s="15" r="L38"/>
+      <c s="15" r="M38"/>
+      <c s="15" r="N38"/>
+      <c s="15" r="O38"/>
+      <c s="15" r="P38"/>
+      <c s="15" r="Q38"/>
+      <c s="15" r="R38"/>
+      <c s="15" r="S38"/>
+      <c s="15" r="T38"/>
+      <c s="15" r="U38"/>
+      <c s="15" r="V38"/>
     </row>
     <row r="39">
-      <c s="13" r="A39"/>
-      <c s="13" r="B39"/>
-      <c s="13" r="C39"/>
-      <c s="13" r="D39"/>
-      <c s="53" r="E39"/>
-      <c s="53" r="F39"/>
-      <c s="53" r="G39"/>
-      <c s="13" r="H39"/>
-      <c s="13" r="I39"/>
-      <c s="13" r="J39"/>
-      <c s="13" r="K39"/>
-      <c s="13" r="L39"/>
-      <c s="13" r="M39"/>
-      <c s="13" r="N39"/>
-      <c s="13" r="O39"/>
-      <c s="13" r="P39"/>
-      <c s="13" r="Q39"/>
-      <c s="13" r="R39"/>
-      <c s="13" r="S39"/>
-      <c s="13" r="T39"/>
-      <c s="13" r="U39"/>
-      <c s="13" r="V39"/>
+      <c s="15" r="A39"/>
+      <c s="15" r="B39"/>
+      <c s="15" r="C39"/>
+      <c s="15" r="D39"/>
+      <c s="55" r="E39"/>
+      <c s="55" r="F39"/>
+      <c s="55" r="G39"/>
+      <c s="15" r="H39"/>
+      <c s="15" r="I39"/>
+      <c s="15" r="J39"/>
+      <c s="15" r="K39"/>
+      <c s="15" r="L39"/>
+      <c s="15" r="M39"/>
+      <c s="15" r="N39"/>
+      <c s="15" r="O39"/>
+      <c s="15" r="P39"/>
+      <c s="15" r="Q39"/>
+      <c s="15" r="R39"/>
+      <c s="15" r="S39"/>
+      <c s="15" r="T39"/>
+      <c s="15" r="U39"/>
+      <c s="15" r="V39"/>
     </row>
     <row r="40">
-      <c s="13" r="A40"/>
-      <c s="13" r="B40"/>
-      <c s="13" r="C40"/>
-      <c s="13" r="D40"/>
-      <c s="53" r="E40"/>
-      <c s="53" r="F40"/>
-      <c s="53" r="G40"/>
-      <c s="13" r="H40"/>
-      <c s="13" r="I40"/>
-      <c s="13" r="J40"/>
-      <c s="13" r="K40"/>
-      <c s="13" r="L40"/>
-      <c s="13" r="M40"/>
-      <c s="13" r="N40"/>
-      <c s="13" r="O40"/>
-      <c s="13" r="P40"/>
-      <c s="13" r="Q40"/>
-      <c s="13" r="R40"/>
-      <c s="13" r="S40"/>
-      <c s="13" r="T40"/>
-      <c s="13" r="U40"/>
-      <c s="13" r="V40"/>
+      <c s="15" r="A40"/>
+      <c s="15" r="B40"/>
+      <c s="15" r="C40"/>
+      <c s="15" r="D40"/>
+      <c s="55" r="E40"/>
+      <c s="55" r="F40"/>
+      <c s="55" r="G40"/>
+      <c s="15" r="H40"/>
+      <c s="15" r="I40"/>
+      <c s="15" r="J40"/>
+      <c s="15" r="K40"/>
+      <c s="15" r="L40"/>
+      <c s="15" r="M40"/>
+      <c s="15" r="N40"/>
+      <c s="15" r="O40"/>
+      <c s="15" r="P40"/>
+      <c s="15" r="Q40"/>
+      <c s="15" r="R40"/>
+      <c s="15" r="S40"/>
+      <c s="15" r="T40"/>
+      <c s="15" r="U40"/>
+      <c s="15" r="V40"/>
     </row>
     <row r="41">
-      <c s="13" r="A41"/>
+      <c s="15" r="A41"/>
     </row>
     <row r="42">
-      <c s="13" r="A42"/>
+      <c s="15" r="A42"/>
     </row>
     <row r="43">
-      <c s="13" r="A43"/>
-      <c s="13" r="B43"/>
-      <c s="13" r="C43"/>
-      <c s="13" r="D43"/>
-      <c s="13" r="E43"/>
-      <c s="13" r="F43"/>
-      <c s="13" r="G43"/>
-      <c s="13" r="H43"/>
-      <c s="13" r="I43"/>
-      <c s="13" r="J43"/>
-      <c s="13" r="K43"/>
-      <c s="13" r="L43"/>
-      <c s="13" r="M43"/>
-      <c s="13" r="N43"/>
-      <c s="13" r="O43"/>
-      <c s="13" r="P43"/>
-      <c s="13" r="Q43"/>
-      <c s="13" r="R43"/>
-      <c s="13" r="S43"/>
-      <c s="13" r="T43"/>
-      <c s="13" r="U43"/>
-      <c s="13" r="V43"/>
+      <c s="15" r="A43"/>
+      <c s="15" r="B43"/>
+      <c s="15" r="C43"/>
+      <c s="15" r="D43"/>
+      <c s="15" r="E43"/>
+      <c s="15" r="F43"/>
+      <c s="15" r="G43"/>
+      <c s="15" r="H43"/>
+      <c s="15" r="I43"/>
+      <c s="15" r="J43"/>
+      <c s="15" r="K43"/>
+      <c s="15" r="L43"/>
+      <c s="15" r="M43"/>
+      <c s="15" r="N43"/>
+      <c s="15" r="O43"/>
+      <c s="15" r="P43"/>
+      <c s="15" r="Q43"/>
+      <c s="15" r="R43"/>
+      <c s="15" r="S43"/>
+      <c s="15" r="T43"/>
+      <c s="15" r="U43"/>
+      <c s="15" r="V43"/>
     </row>
     <row r="44">
-      <c s="13" r="A44"/>
-      <c s="13" r="B44"/>
-      <c s="13" r="C44"/>
-      <c s="13" r="D44"/>
-      <c s="13" r="E44"/>
-      <c s="13" r="F44"/>
-      <c s="13" r="G44"/>
-      <c s="13" r="H44"/>
-      <c s="13" r="I44"/>
-      <c s="13" r="J44"/>
-      <c s="13" r="K44"/>
-      <c s="13" r="L44"/>
-      <c s="13" r="M44"/>
-      <c s="13" r="N44"/>
-      <c s="13" r="O44"/>
-      <c s="13" r="P44"/>
-      <c s="13" r="Q44"/>
-      <c s="13" r="R44"/>
-      <c s="13" r="S44"/>
-      <c s="13" r="T44"/>
-      <c s="13" r="U44"/>
-      <c s="13" r="V44"/>
+      <c s="15" r="A44"/>
+      <c s="15" r="B44"/>
+      <c s="15" r="C44"/>
+      <c s="15" r="D44"/>
+      <c s="15" r="E44"/>
+      <c s="15" r="F44"/>
+      <c s="15" r="G44"/>
+      <c s="15" r="H44"/>
+      <c s="15" r="I44"/>
+      <c s="15" r="J44"/>
+      <c s="15" r="K44"/>
+      <c s="15" r="L44"/>
+      <c s="15" r="M44"/>
+      <c s="15" r="N44"/>
+      <c s="15" r="O44"/>
+      <c s="15" r="P44"/>
+      <c s="15" r="Q44"/>
+      <c s="15" r="R44"/>
+      <c s="15" r="S44"/>
+      <c s="15" r="T44"/>
+      <c s="15" r="U44"/>
+      <c s="15" r="V44"/>
     </row>
     <row r="45">
-      <c s="13" r="A45"/>
-      <c s="13" r="B45"/>
-      <c s="13" r="C45"/>
-      <c s="13" r="D45"/>
-      <c s="13" r="E45"/>
-      <c s="13" r="F45"/>
-      <c s="13" r="G45"/>
-      <c s="13" r="H45"/>
-      <c s="13" r="I45"/>
-      <c s="13" r="J45"/>
-      <c s="13" r="K45"/>
-      <c s="13" r="L45"/>
-      <c s="13" r="M45"/>
-      <c s="13" r="N45"/>
-      <c s="13" r="O45"/>
-      <c s="13" r="P45"/>
-      <c s="13" r="Q45"/>
-      <c s="13" r="R45"/>
-      <c s="13" r="S45"/>
-      <c s="13" r="T45"/>
-      <c s="13" r="U45"/>
-      <c s="13" r="V45"/>
+      <c s="15" r="A45"/>
+      <c s="15" r="B45"/>
+      <c s="15" r="C45"/>
+      <c s="15" r="D45"/>
+      <c s="15" r="E45"/>
+      <c s="15" r="F45"/>
+      <c s="15" r="G45"/>
+      <c s="15" r="H45"/>
+      <c s="15" r="I45"/>
+      <c s="15" r="J45"/>
+      <c s="15" r="K45"/>
+      <c s="15" r="L45"/>
+      <c s="15" r="M45"/>
+      <c s="15" r="N45"/>
+      <c s="15" r="O45"/>
+      <c s="15" r="P45"/>
+      <c s="15" r="Q45"/>
+      <c s="15" r="R45"/>
+      <c s="15" r="S45"/>
+      <c s="15" r="T45"/>
+      <c s="15" r="U45"/>
+      <c s="15" r="V45"/>
     </row>
     <row r="46">
-      <c s="13" r="A46"/>
-      <c s="13" r="B46"/>
-      <c s="13" r="C46"/>
-      <c s="13" r="D46"/>
-      <c s="13" r="I46"/>
-      <c s="13" r="J46"/>
-      <c s="13" r="K46"/>
-      <c s="13" r="L46"/>
-      <c s="13" r="M46"/>
-      <c s="13" r="N46"/>
-      <c s="13" r="O46"/>
-      <c s="13" r="P46"/>
-      <c s="13" r="Q46"/>
-      <c s="13" r="R46"/>
-      <c s="13" r="S46"/>
-      <c s="13" r="T46"/>
-      <c s="13" r="U46"/>
-      <c s="13" r="V46"/>
+      <c s="15" r="A46"/>
+      <c s="15" r="B46"/>
+      <c s="15" r="C46"/>
+      <c s="15" r="D46"/>
+      <c s="15" r="I46"/>
+      <c s="15" r="J46"/>
+      <c s="15" r="K46"/>
+      <c s="15" r="L46"/>
+      <c s="15" r="M46"/>
+      <c s="15" r="N46"/>
+      <c s="15" r="O46"/>
+      <c s="15" r="P46"/>
+      <c s="15" r="Q46"/>
+      <c s="15" r="R46"/>
+      <c s="15" r="S46"/>
+      <c s="15" r="T46"/>
+      <c s="15" r="U46"/>
+      <c s="15" r="V46"/>
     </row>
     <row r="47">
-      <c s="13" r="A47"/>
-      <c s="13" r="B47"/>
-      <c s="13" r="C47"/>
-      <c s="13" r="D47"/>
-      <c s="13" r="E47"/>
-      <c s="13" r="F47"/>
-      <c s="13" r="G47"/>
-      <c s="13" r="H47"/>
-      <c s="13" r="I47"/>
-      <c s="13" r="J47"/>
-      <c s="13" r="K47"/>
-      <c s="13" r="L47"/>
-      <c s="13" r="M47"/>
-      <c s="13" r="N47"/>
-      <c s="13" r="O47"/>
-      <c s="13" r="P47"/>
-      <c s="13" r="Q47"/>
-      <c s="13" r="R47"/>
-      <c s="13" r="S47"/>
-      <c s="13" r="T47"/>
-      <c s="13" r="U47"/>
-      <c s="13" r="V47"/>
+      <c s="15" r="A47"/>
+      <c s="15" r="B47"/>
+      <c s="15" r="C47"/>
+      <c s="15" r="D47"/>
+      <c s="15" r="E47"/>
+      <c s="15" r="F47"/>
+      <c s="15" r="G47"/>
+      <c s="15" r="H47"/>
+      <c s="15" r="I47"/>
+      <c s="15" r="J47"/>
+      <c s="15" r="K47"/>
+      <c s="15" r="L47"/>
+      <c s="15" r="M47"/>
+      <c s="15" r="N47"/>
+      <c s="15" r="O47"/>
+      <c s="15" r="P47"/>
+      <c s="15" r="Q47"/>
+      <c s="15" r="R47"/>
+      <c s="15" r="S47"/>
+      <c s="15" r="T47"/>
+      <c s="15" r="U47"/>
+      <c s="15" r="V47"/>
     </row>
     <row r="48">
-      <c s="13" r="A48"/>
-      <c s="13" r="B48"/>
-      <c s="13" r="C48"/>
-      <c s="13" r="D48"/>
-      <c s="13" r="E48"/>
-      <c s="13" r="F48"/>
-      <c s="13" r="G48"/>
-      <c s="13" r="H48"/>
-      <c s="13" r="I48"/>
-      <c s="13" r="J48"/>
-      <c s="13" r="K48"/>
-      <c s="13" r="L48"/>
-      <c s="13" r="M48"/>
-      <c s="13" r="N48"/>
-      <c s="13" r="O48"/>
-      <c s="13" r="P48"/>
-      <c s="13" r="Q48"/>
-      <c s="13" r="R48"/>
-      <c s="13" r="S48"/>
-      <c s="13" r="T48"/>
-      <c s="13" r="U48"/>
-      <c s="13" r="V48"/>
+      <c s="15" r="A48"/>
+      <c s="15" r="B48"/>
+      <c s="15" r="C48"/>
+      <c s="15" r="D48"/>
+      <c s="15" r="E48"/>
+      <c s="15" r="F48"/>
+      <c s="15" r="G48"/>
+      <c s="15" r="H48"/>
+      <c s="15" r="I48"/>
+      <c s="15" r="J48"/>
+      <c s="15" r="K48"/>
+      <c s="15" r="L48"/>
+      <c s="15" r="M48"/>
+      <c s="15" r="N48"/>
+      <c s="15" r="O48"/>
+      <c s="15" r="P48"/>
+      <c s="15" r="Q48"/>
+      <c s="15" r="R48"/>
+      <c s="15" r="S48"/>
+      <c s="15" r="T48"/>
+      <c s="15" r="U48"/>
+      <c s="15" r="V48"/>
     </row>
     <row r="49">
-      <c s="13" r="A49"/>
-      <c s="13" r="B49"/>
-      <c s="13" r="C49"/>
-      <c s="13" r="D49"/>
-      <c s="13" r="E49"/>
-      <c s="13" r="F49"/>
-      <c s="13" r="G49"/>
-      <c s="13" r="H49"/>
-      <c s="13" r="I49"/>
-      <c s="13" r="J49"/>
-      <c s="13" r="K49"/>
-      <c s="13" r="L49"/>
-      <c s="13" r="M49"/>
-      <c s="13" r="N49"/>
-      <c s="13" r="O49"/>
-      <c s="13" r="P49"/>
-      <c s="13" r="Q49"/>
-      <c s="13" r="R49"/>
-      <c s="13" r="S49"/>
-      <c s="13" r="T49"/>
-      <c s="13" r="U49"/>
-      <c s="13" r="V49"/>
+      <c s="15" r="A49"/>
+      <c s="15" r="B49"/>
+      <c s="15" r="C49"/>
+      <c s="15" r="D49"/>
+      <c s="15" r="E49"/>
+      <c s="15" r="F49"/>
+      <c s="15" r="G49"/>
+      <c s="15" r="H49"/>
+      <c s="15" r="I49"/>
+      <c s="15" r="J49"/>
+      <c s="15" r="K49"/>
+      <c s="15" r="L49"/>
+      <c s="15" r="M49"/>
+      <c s="15" r="N49"/>
+      <c s="15" r="O49"/>
+      <c s="15" r="P49"/>
+      <c s="15" r="Q49"/>
+      <c s="15" r="R49"/>
+      <c s="15" r="S49"/>
+      <c s="15" r="T49"/>
+      <c s="15" r="U49"/>
+      <c s="15" r="V49"/>
     </row>
     <row r="50">
-      <c s="13" r="A50"/>
-      <c s="13" r="B50"/>
-      <c s="13" r="C50"/>
-      <c s="13" r="D50"/>
-      <c s="13" r="E50"/>
-      <c s="13" r="F50"/>
-      <c s="13" r="G50"/>
-      <c s="13" r="H50"/>
-      <c s="13" r="I50"/>
-      <c s="13" r="J50"/>
-      <c s="13" r="K50"/>
-      <c s="13" r="L50"/>
-      <c s="13" r="M50"/>
-      <c s="13" r="N50"/>
-      <c s="13" r="O50"/>
-      <c s="13" r="P50"/>
-      <c s="13" r="Q50"/>
-      <c s="13" r="R50"/>
-      <c s="13" r="S50"/>
-      <c s="13" r="T50"/>
-      <c s="13" r="U50"/>
-      <c s="13" r="V50"/>
+      <c s="15" r="A50"/>
+      <c s="15" r="B50"/>
+      <c s="15" r="C50"/>
+      <c s="15" r="D50"/>
+      <c s="15" r="E50"/>
+      <c s="15" r="F50"/>
+      <c s="15" r="G50"/>
+      <c s="15" r="H50"/>
+      <c s="15" r="I50"/>
+      <c s="15" r="J50"/>
+      <c s="15" r="K50"/>
+      <c s="15" r="L50"/>
+      <c s="15" r="M50"/>
+      <c s="15" r="N50"/>
+      <c s="15" r="O50"/>
+      <c s="15" r="P50"/>
+      <c s="15" r="Q50"/>
+      <c s="15" r="R50"/>
+      <c s="15" r="S50"/>
+      <c s="15" r="T50"/>
+      <c s="15" r="U50"/>
+      <c s="15" r="V50"/>
     </row>
     <row r="51">
-      <c s="13" r="A51"/>
-      <c s="13" r="B51"/>
-      <c s="13" r="C51"/>
-      <c s="13" r="D51"/>
-      <c s="13" r="E51"/>
-      <c s="13" r="F51"/>
-      <c s="13" r="G51"/>
-      <c s="13" r="H51"/>
-      <c s="13" r="I51"/>
-      <c s="13" r="J51"/>
-      <c s="13" r="K51"/>
-      <c s="13" r="L51"/>
-      <c s="13" r="M51"/>
-      <c s="13" r="N51"/>
-      <c s="13" r="O51"/>
-      <c s="13" r="P51"/>
-      <c s="13" r="Q51"/>
-      <c s="13" r="R51"/>
-      <c s="13" r="S51"/>
-      <c s="13" r="T51"/>
-      <c s="13" r="U51"/>
-      <c s="13" r="V51"/>
+      <c s="15" r="A51"/>
+      <c s="15" r="B51"/>
+      <c s="15" r="C51"/>
+      <c s="15" r="D51"/>
+      <c s="15" r="E51"/>
+      <c s="15" r="F51"/>
+      <c s="15" r="G51"/>
+      <c s="15" r="H51"/>
+      <c s="15" r="I51"/>
+      <c s="15" r="J51"/>
+      <c s="15" r="K51"/>
+      <c s="15" r="L51"/>
+      <c s="15" r="M51"/>
+      <c s="15" r="N51"/>
+      <c s="15" r="O51"/>
+      <c s="15" r="P51"/>
+      <c s="15" r="Q51"/>
+      <c s="15" r="R51"/>
+      <c s="15" r="S51"/>
+      <c s="15" r="T51"/>
+      <c s="15" r="U51"/>
+      <c s="15" r="V51"/>
     </row>
     <row r="52">
-      <c s="13" r="A52"/>
-      <c s="13" r="B52"/>
-      <c s="13" r="C52"/>
-      <c s="13" r="D52"/>
-      <c s="13" r="E52"/>
-      <c s="13" r="F52"/>
-      <c s="13" r="G52"/>
-      <c s="13" r="H52"/>
-      <c s="13" r="I52"/>
-      <c s="13" r="J52"/>
-      <c s="13" r="K52"/>
-      <c s="13" r="L52"/>
-      <c s="13" r="M52"/>
-      <c s="13" r="N52"/>
-      <c s="13" r="O52"/>
-      <c s="13" r="P52"/>
-      <c s="13" r="Q52"/>
-      <c s="13" r="R52"/>
-      <c s="13" r="S52"/>
-      <c s="13" r="T52"/>
-      <c s="13" r="U52"/>
-      <c s="13" r="V52"/>
+      <c s="15" r="A52"/>
+      <c s="15" r="B52"/>
+      <c s="15" r="C52"/>
+      <c s="15" r="D52"/>
+      <c s="15" r="E52"/>
+      <c s="15" r="F52"/>
+      <c s="15" r="G52"/>
+      <c s="15" r="H52"/>
+      <c s="15" r="I52"/>
+      <c s="15" r="J52"/>
+      <c s="15" r="K52"/>
+      <c s="15" r="L52"/>
+      <c s="15" r="M52"/>
+      <c s="15" r="N52"/>
+      <c s="15" r="O52"/>
+      <c s="15" r="P52"/>
+      <c s="15" r="Q52"/>
+      <c s="15" r="R52"/>
+      <c s="15" r="S52"/>
+      <c s="15" r="T52"/>
+      <c s="15" r="U52"/>
+      <c s="15" r="V52"/>
     </row>
     <row r="53">
-      <c s="13" r="A53"/>
-      <c s="13" r="B53"/>
-      <c s="13" r="C53"/>
-      <c s="13" r="D53"/>
-      <c s="13" r="E53"/>
-      <c s="13" r="F53"/>
-      <c s="13" r="G53"/>
-      <c s="13" r="H53"/>
-      <c s="13" r="I53"/>
-      <c s="13" r="J53"/>
-      <c s="13" r="K53"/>
-      <c s="13" r="L53"/>
-      <c s="13" r="M53"/>
-      <c s="13" r="N53"/>
-      <c s="13" r="O53"/>
-      <c s="13" r="P53"/>
-      <c s="13" r="Q53"/>
-      <c s="13" r="R53"/>
-      <c s="13" r="S53"/>
-      <c s="13" r="T53"/>
-      <c s="13" r="U53"/>
-      <c s="13" r="V53"/>
+      <c s="15" r="A53"/>
+      <c s="15" r="B53"/>
+      <c s="15" r="C53"/>
+      <c s="15" r="D53"/>
+      <c s="15" r="E53"/>
+      <c s="15" r="F53"/>
+      <c s="15" r="G53"/>
+      <c s="15" r="H53"/>
+      <c s="15" r="I53"/>
+      <c s="15" r="J53"/>
+      <c s="15" r="K53"/>
+      <c s="15" r="L53"/>
+      <c s="15" r="M53"/>
+      <c s="15" r="N53"/>
+      <c s="15" r="O53"/>
+      <c s="15" r="P53"/>
+      <c s="15" r="Q53"/>
+      <c s="15" r="R53"/>
+      <c s="15" r="S53"/>
+      <c s="15" r="T53"/>
+      <c s="15" r="U53"/>
+      <c s="15" r="V53"/>
     </row>
     <row r="54">
-      <c s="13" r="A54"/>
-      <c s="13" r="B54"/>
-      <c s="13" r="C54"/>
-      <c s="13" r="D54"/>
-      <c s="13" r="E54"/>
-      <c s="13" r="F54"/>
-      <c s="13" r="G54"/>
-      <c s="13" r="H54"/>
-      <c s="13" r="I54"/>
-      <c s="13" r="J54"/>
-      <c s="13" r="K54"/>
-      <c s="13" r="L54"/>
-      <c s="13" r="M54"/>
-      <c s="13" r="N54"/>
-      <c s="13" r="O54"/>
-      <c s="13" r="P54"/>
-      <c s="13" r="Q54"/>
-      <c s="13" r="R54"/>
-      <c s="13" r="S54"/>
-      <c s="13" r="T54"/>
-      <c s="13" r="U54"/>
-      <c s="13" r="V54"/>
+      <c s="15" r="A54"/>
+      <c s="15" r="B54"/>
+      <c s="15" r="C54"/>
+      <c s="15" r="D54"/>
+      <c s="15" r="E54"/>
+      <c s="15" r="F54"/>
+      <c s="15" r="G54"/>
+      <c s="15" r="H54"/>
+      <c s="15" r="I54"/>
+      <c s="15" r="J54"/>
+      <c s="15" r="K54"/>
+      <c s="15" r="L54"/>
+      <c s="15" r="M54"/>
+      <c s="15" r="N54"/>
+      <c s="15" r="O54"/>
+      <c s="15" r="P54"/>
+      <c s="15" r="Q54"/>
+      <c s="15" r="R54"/>
+      <c s="15" r="S54"/>
+      <c s="15" r="T54"/>
+      <c s="15" r="U54"/>
+      <c s="15" r="V54"/>
     </row>
   </sheetData>
 </worksheet>
@@ -3767,13 +3863,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c s="13" r="A1"/>
-      <c s="75" r="B1"/>
-      <c t="s" s="8" r="C1">
+      <c s="15" r="A1"/>
+      <c s="79" r="B1"/>
+      <c t="s" s="10" r="C1">
         <v>0</v>
       </c>
-      <c s="13" r="D1"/>
-      <c t="s" s="14" r="E1">
+      <c s="15" r="D1"/>
+      <c t="s" s="16" r="E1">
         <v>1</v>
       </c>
       <c t="s" r="F1">
@@ -3782,1188 +3878,1188 @@
       <c t="s" r="G1">
         <v>3</v>
       </c>
-      <c s="13" r="H1">
+      <c s="15" r="H1">
         <v>62480</v>
       </c>
-      <c s="13" r="J1"/>
-      <c s="8" r="K1"/>
-      <c s="13" r="L1"/>
-      <c s="13" r="M1"/>
-      <c s="13" r="N1"/>
-      <c s="13" r="O1"/>
-      <c s="13" r="P1"/>
-      <c s="13" r="Q1"/>
-      <c s="13" r="R1"/>
-      <c s="13" r="S1"/>
-      <c s="13" r="T1"/>
-      <c s="13" r="U1"/>
-      <c s="13" r="V1"/>
+      <c s="15" r="J1"/>
+      <c s="10" r="K1"/>
+      <c s="15" r="L1"/>
+      <c s="15" r="M1"/>
+      <c s="15" r="N1"/>
+      <c s="15" r="O1"/>
+      <c s="15" r="P1"/>
+      <c s="15" r="Q1"/>
+      <c s="15" r="R1"/>
+      <c s="15" r="S1"/>
+      <c s="15" r="T1"/>
+      <c s="15" r="U1"/>
+      <c s="15" r="V1"/>
     </row>
     <row r="2">
-      <c s="13" r="A2"/>
-      <c s="13" r="B2"/>
-      <c s="13" r="C2"/>
-      <c s="13" r="D2"/>
-      <c s="13" r="E2"/>
-      <c t="s" s="13" r="F2">
+      <c s="15" r="A2"/>
+      <c s="15" r="B2"/>
+      <c s="15" r="C2"/>
+      <c s="15" r="D2"/>
+      <c s="15" r="E2"/>
+      <c t="s" s="15" r="F2">
         <v>4</v>
       </c>
-      <c t="s" s="13" r="G2">
+      <c t="s" s="15" r="G2">
         <v>5</v>
       </c>
-      <c s="13" r="H2">
+      <c s="15" r="H2">
         <v>71396</v>
       </c>
-      <c s="13" r="I2"/>
-      <c s="13" r="J2"/>
-      <c s="13" r="K2"/>
-      <c s="13" r="L2"/>
-      <c s="13" r="M2"/>
-      <c s="13" r="N2"/>
-      <c s="13" r="O2"/>
-      <c s="13" r="P2"/>
-      <c s="13" r="Q2"/>
-      <c s="13" r="R2"/>
-      <c s="13" r="S2"/>
-      <c s="13" r="T2"/>
-      <c s="13" r="U2"/>
-      <c s="13" r="V2"/>
+      <c s="15" r="I2"/>
+      <c s="15" r="J2"/>
+      <c s="15" r="K2"/>
+      <c s="15" r="L2"/>
+      <c s="15" r="M2"/>
+      <c s="15" r="N2"/>
+      <c s="15" r="O2"/>
+      <c s="15" r="P2"/>
+      <c s="15" r="Q2"/>
+      <c s="15" r="R2"/>
+      <c s="15" r="S2"/>
+      <c s="15" r="T2"/>
+      <c s="15" r="U2"/>
+      <c s="15" r="V2"/>
     </row>
     <row r="3">
-      <c s="13" r="A3"/>
-      <c s="13" r="B3"/>
-      <c s="13" r="C3"/>
-      <c s="13" r="D3"/>
-      <c s="13" r="E3"/>
+      <c s="15" r="A3"/>
+      <c s="15" r="B3"/>
+      <c s="15" r="C3"/>
+      <c s="15" r="D3"/>
+      <c s="15" r="E3"/>
       <c t="s" r="F3">
         <v>6</v>
       </c>
       <c t="s" r="G3">
         <v>54</v>
       </c>
-      <c s="13" r="H3">
+      <c s="15" r="H3">
         <v>71989</v>
       </c>
-      <c s="13" r="I3"/>
-      <c s="13" r="J3"/>
-      <c s="13" r="K3"/>
-      <c s="13" r="L3"/>
-      <c s="13" r="M3"/>
-      <c s="13" r="N3"/>
-      <c s="13" r="O3"/>
-      <c s="13" r="P3"/>
-      <c s="13" r="Q3"/>
-      <c s="13" r="R3"/>
-      <c s="13" r="S3"/>
-      <c s="13" r="T3"/>
-      <c s="13" r="U3"/>
-      <c s="13" r="V3"/>
+      <c s="15" r="I3"/>
+      <c s="15" r="J3"/>
+      <c s="15" r="K3"/>
+      <c s="15" r="L3"/>
+      <c s="15" r="M3"/>
+      <c s="15" r="N3"/>
+      <c s="15" r="O3"/>
+      <c s="15" r="P3"/>
+      <c s="15" r="Q3"/>
+      <c s="15" r="R3"/>
+      <c s="15" r="S3"/>
+      <c s="15" r="T3"/>
+      <c s="15" r="U3"/>
+      <c s="15" r="V3"/>
     </row>
     <row r="4">
-      <c s="13" r="A4"/>
-      <c s="13" r="B4"/>
-      <c s="13" r="C4"/>
-      <c s="13" r="D4"/>
-      <c s="13" r="E4"/>
-      <c t="s" s="13" r="F4">
+      <c s="15" r="A4"/>
+      <c s="15" r="B4"/>
+      <c s="15" r="C4"/>
+      <c s="15" r="D4"/>
+      <c s="15" r="E4"/>
+      <c t="s" s="15" r="F4">
         <v>8</v>
       </c>
-      <c t="s" s="13" r="G4">
+      <c t="s" s="15" r="G4">
         <v>9</v>
       </c>
-      <c s="13" r="H4">
+      <c s="15" r="H4">
         <v>72051</v>
       </c>
-      <c s="13" r="I4"/>
-      <c s="13" r="J4"/>
-      <c s="13" r="K4"/>
-      <c s="13" r="L4"/>
-      <c s="13" r="M4"/>
-      <c s="13" r="N4"/>
-      <c s="13" r="O4"/>
-      <c s="13" r="P4"/>
-      <c s="13" r="Q4"/>
-      <c s="13" r="R4"/>
-      <c s="13" r="S4"/>
-      <c s="13" r="T4"/>
-      <c s="13" r="U4"/>
-      <c s="13" r="V4"/>
+      <c s="15" r="I4"/>
+      <c s="15" r="J4"/>
+      <c s="15" r="K4"/>
+      <c s="15" r="L4"/>
+      <c s="15" r="M4"/>
+      <c s="15" r="N4"/>
+      <c s="15" r="O4"/>
+      <c s="15" r="P4"/>
+      <c s="15" r="Q4"/>
+      <c s="15" r="R4"/>
+      <c s="15" r="S4"/>
+      <c s="15" r="T4"/>
+      <c s="15" r="U4"/>
+      <c s="15" r="V4"/>
     </row>
     <row r="5">
-      <c s="13" r="A5"/>
-      <c s="13" r="B5"/>
-      <c s="13" r="C5"/>
-      <c s="13" r="D5"/>
-      <c s="13" r="E5"/>
-      <c s="13" r="I5"/>
-      <c s="13" r="J5"/>
-      <c s="13" r="K5"/>
-      <c s="13" r="L5"/>
-      <c s="13" r="M5"/>
-      <c s="13" r="N5"/>
-      <c s="13" r="O5"/>
-      <c s="13" r="P5"/>
-      <c s="13" r="Q5"/>
-      <c s="13" r="R5"/>
-      <c s="13" r="S5"/>
-      <c s="13" r="T5"/>
-      <c s="13" r="U5"/>
-      <c s="13" r="V5"/>
+      <c s="15" r="A5"/>
+      <c s="15" r="B5"/>
+      <c s="15" r="C5"/>
+      <c s="15" r="D5"/>
+      <c s="15" r="E5"/>
+      <c s="15" r="I5"/>
+      <c s="15" r="J5"/>
+      <c s="15" r="K5"/>
+      <c s="15" r="L5"/>
+      <c s="15" r="M5"/>
+      <c s="15" r="N5"/>
+      <c s="15" r="O5"/>
+      <c s="15" r="P5"/>
+      <c s="15" r="Q5"/>
+      <c s="15" r="R5"/>
+      <c s="15" r="S5"/>
+      <c s="15" r="T5"/>
+      <c s="15" r="U5"/>
+      <c s="15" r="V5"/>
     </row>
     <row r="6">
-      <c s="13" r="A6"/>
-      <c s="7" r="B6"/>
-      <c s="7" r="C6"/>
-      <c s="7" r="D6"/>
-      <c s="42" r="E6">
+      <c s="15" r="A6"/>
+      <c s="8" r="B6"/>
+      <c s="8" r="C6"/>
+      <c s="8" r="D6"/>
+      <c s="44" r="E6">
         <v>41375</v>
       </c>
-      <c s="42" r="F6">
+      <c s="44" r="F6">
         <v>41405</v>
       </c>
-      <c s="42" r="G6">
+      <c s="44" r="G6">
         <v>41466</v>
       </c>
-      <c s="42" r="H6">
+      <c s="44" r="H6">
         <v>41589</v>
       </c>
-      <c s="42" r="I6">
+      <c s="44" r="I6">
         <v>41619</v>
       </c>
-      <c t="s" s="64" r="J6">
+      <c t="s" s="66" r="J6">
         <v>11</v>
       </c>
-      <c t="s" s="64" r="K6">
+      <c t="s" s="66" r="K6">
         <v>12</v>
       </c>
-      <c t="s" s="64" r="L6">
+      <c t="s" s="66" r="L6">
         <v>13</v>
       </c>
-      <c t="s" s="64" r="M6">
+      <c t="s" s="66" r="M6">
         <v>14</v>
       </c>
-      <c t="s" s="64" r="N6">
+      <c t="s" s="66" r="N6">
         <v>15</v>
       </c>
-      <c t="s" s="64" r="O6">
+      <c t="s" s="66" r="O6">
         <v>16</v>
       </c>
-      <c t="s" s="64" r="P6">
+      <c t="s" s="66" r="P6">
         <v>17</v>
       </c>
-      <c s="42" r="Q6">
+      <c s="44" r="Q6">
         <v>41345</v>
       </c>
-      <c s="42" r="R6">
+      <c s="44" r="R6">
         <v>41376</v>
       </c>
-      <c s="42" r="S6">
+      <c s="44" r="S6">
         <v>41437</v>
       </c>
-      <c s="42" r="T6">
+      <c s="44" r="T6">
         <v>41529</v>
       </c>
-      <c s="42" r="U6">
+      <c s="44" r="U6">
         <v>41559</v>
       </c>
-      <c s="42" r="V6">
+      <c s="44" r="V6">
         <v>41620</v>
       </c>
     </row>
     <row r="7">
-      <c s="30" r="A7"/>
-      <c s="26" r="B7"/>
-      <c s="61" r="C7"/>
-      <c s="9" r="D7"/>
-      <c t="s" s="32" r="E7">
+      <c s="32" r="A7"/>
+      <c s="28" r="B7"/>
+      <c s="63" r="C7"/>
+      <c s="11" r="D7"/>
+      <c t="s" s="34" r="E7">
         <v>18</v>
       </c>
-      <c s="32" r="F7"/>
-      <c s="32" r="G7"/>
-      <c t="s" s="32" r="H7">
+      <c s="34" r="F7"/>
+      <c s="34" r="G7"/>
+      <c t="s" s="34" r="H7">
         <v>19</v>
       </c>
-      <c s="32" r="I7"/>
-      <c s="32" r="J7"/>
-      <c t="s" s="32" r="K7">
+      <c s="34" r="I7"/>
+      <c s="34" r="J7"/>
+      <c t="s" s="34" r="K7">
         <v>20</v>
       </c>
-      <c s="32" r="L7"/>
-      <c s="32" r="M7"/>
-      <c t="s" s="32" r="N7">
+      <c s="34" r="L7"/>
+      <c s="34" r="M7"/>
+      <c t="s" s="34" r="N7">
         <v>21</v>
       </c>
-      <c s="32" r="O7"/>
-      <c s="32" r="P7"/>
-      <c t="s" s="32" r="Q7">
+      <c s="34" r="O7"/>
+      <c s="34" r="P7"/>
+      <c t="s" s="34" r="Q7">
         <v>22</v>
       </c>
-      <c s="32" r="R7"/>
-      <c s="32" r="S7"/>
-      <c t="s" s="32" r="T7">
+      <c s="34" r="R7"/>
+      <c s="34" r="S7"/>
+      <c t="s" s="34" r="T7">
         <v>23</v>
       </c>
-      <c s="32" r="U7"/>
-      <c s="32" r="V7"/>
+      <c s="34" r="U7"/>
+      <c s="34" r="V7"/>
     </row>
     <row r="8">
-      <c s="30" r="A8"/>
-      <c s="77" r="B8"/>
-      <c s="77" r="C8"/>
-      <c s="26" r="D8"/>
-      <c t="s" s="77" r="E8">
+      <c s="32" r="A8"/>
+      <c s="81" r="B8"/>
+      <c s="81" r="C8"/>
+      <c s="28" r="D8"/>
+      <c t="s" s="81" r="E8">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="F8">
+      <c t="s" s="81" r="F8">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="G8">
+      <c t="s" s="81" r="G8">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="H8">
+      <c t="s" s="81" r="H8">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="I8">
+      <c t="s" s="81" r="I8">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="J8">
+      <c t="s" s="81" r="J8">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="K8">
+      <c t="s" s="81" r="K8">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="L8">
+      <c t="s" s="81" r="L8">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="M8">
+      <c t="s" s="81" r="M8">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="N8">
+      <c t="s" s="81" r="N8">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="O8">
+      <c t="s" s="81" r="O8">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="P8">
+      <c t="s" s="81" r="P8">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="Q8">
+      <c t="s" s="81" r="Q8">
         <v>27</v>
       </c>
-      <c t="s" s="77" r="R8">
+      <c t="s" s="81" r="R8">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="S8">
+      <c t="s" s="81" r="S8">
         <v>26</v>
       </c>
-      <c t="s" s="77" r="T8">
+      <c t="s" s="81" r="T8">
         <v>24</v>
       </c>
-      <c t="s" s="77" r="U8">
+      <c t="s" s="81" r="U8">
         <v>25</v>
       </c>
-      <c t="s" s="77" r="V8">
+      <c t="s" s="81" r="V8">
         <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c s="30" r="A9"/>
-      <c s="77" r="B9"/>
-      <c t="s" s="68" r="C9">
+      <c s="32" r="A9"/>
+      <c s="81" r="B9"/>
+      <c t="s" s="71" r="C9">
         <v>28</v>
       </c>
-      <c s="73" r="D9"/>
-      <c s="31" r="E9"/>
-      <c s="31" r="F9"/>
-      <c s="58" r="G9"/>
-      <c s="58" r="H9"/>
-      <c s="58" r="I9"/>
-      <c s="58" r="J9"/>
-      <c s="58" r="K9"/>
-      <c s="58" r="L9"/>
-      <c s="58" r="M9"/>
-      <c s="58" r="N9"/>
-      <c s="58" r="O9"/>
-      <c s="58" r="P9"/>
-      <c s="58" r="Q9"/>
-      <c s="58" r="R9"/>
-      <c s="58" r="S9"/>
-      <c s="58" r="T9"/>
-      <c s="58" r="U9"/>
-      <c s="58" r="V9"/>
+      <c s="77" r="D9"/>
+      <c s="33" r="E9"/>
+      <c s="33" r="F9"/>
+      <c s="60" r="G9"/>
+      <c s="60" r="H9"/>
+      <c s="60" r="I9"/>
+      <c s="60" r="J9"/>
+      <c s="60" r="K9"/>
+      <c s="60" r="L9"/>
+      <c s="60" r="M9"/>
+      <c s="60" r="N9"/>
+      <c s="60" r="O9"/>
+      <c s="60" r="P9"/>
+      <c s="60" r="Q9"/>
+      <c s="60" r="R9"/>
+      <c s="60" r="S9"/>
+      <c s="60" r="T9"/>
+      <c s="60" r="U9"/>
+      <c s="60" r="V9"/>
     </row>
     <row r="10">
-      <c s="30" r="A10"/>
-      <c s="77" r="B10">
+      <c s="32" r="A10"/>
+      <c s="81" r="B10">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C10">
+      <c t="s" s="24" r="C10">
         <v>29</v>
       </c>
-      <c s="17" r="D10">
+      <c s="19" r="D10">
         <v>3</v>
       </c>
-      <c s="56" r="E10"/>
-      <c s="29" r="F10"/>
-      <c s="67" r="G10"/>
-      <c s="21" r="H10"/>
-      <c s="39" r="I10"/>
-      <c s="39" r="J10"/>
-      <c s="21" r="K10"/>
-      <c s="39" r="L10"/>
-      <c s="39" r="M10"/>
-      <c s="21" r="N10"/>
-      <c s="39" r="O10"/>
-      <c s="39" r="P10"/>
-      <c s="49" r="Q10"/>
-      <c s="39" r="R10"/>
-      <c s="39" r="S10"/>
-      <c s="21" r="T10"/>
-      <c s="39" r="U10"/>
-      <c s="39" r="V10"/>
+      <c s="58" r="E10"/>
+      <c s="31" r="F10"/>
+      <c s="70" r="G10"/>
+      <c s="45" r="H10"/>
+      <c s="40" r="I10"/>
+      <c s="40" r="J10"/>
+      <c s="23" r="K10"/>
+      <c s="40" r="L10"/>
+      <c s="40" r="M10"/>
+      <c s="23" r="N10"/>
+      <c s="40" r="O10"/>
+      <c s="40" r="P10"/>
+      <c s="51" r="Q10"/>
+      <c s="40" r="R10"/>
+      <c s="40" r="S10"/>
+      <c s="23" r="T10"/>
+      <c s="40" r="U10"/>
+      <c s="40" r="V10"/>
     </row>
     <row r="11">
-      <c s="30" r="A11"/>
-      <c s="77" r="B11">
+      <c s="32" r="A11"/>
+      <c s="81" r="B11">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C11">
+      <c t="s" s="24" r="C11">
         <v>30</v>
       </c>
-      <c s="17" r="D11">
+      <c s="19" r="D11">
         <v>6</v>
       </c>
-      <c s="29" r="E11"/>
-      <c s="29" r="F11"/>
-      <c s="29" r="G11"/>
-      <c s="24" r="H11"/>
-      <c s="39" r="I11"/>
-      <c s="39" r="J11"/>
-      <c s="21" r="K11"/>
-      <c s="39" r="L11"/>
-      <c s="39" r="M11"/>
-      <c s="21" r="N11"/>
-      <c s="39" r="O11"/>
-      <c s="39" r="P11"/>
-      <c s="49" r="Q11"/>
-      <c s="39" r="R11"/>
-      <c s="39" r="S11"/>
-      <c s="21" r="T11"/>
-      <c s="39" r="U11"/>
-      <c s="39" r="V11"/>
+      <c s="31" r="E11"/>
+      <c s="31" r="F11"/>
+      <c s="31" r="G11"/>
+      <c s="31" r="H11"/>
+      <c s="70" r="I11"/>
+      <c s="18" r="J11"/>
+      <c s="23" r="K11"/>
+      <c s="40" r="L11"/>
+      <c s="40" r="M11"/>
+      <c s="23" r="N11"/>
+      <c s="40" r="O11"/>
+      <c s="40" r="P11"/>
+      <c s="51" r="Q11"/>
+      <c s="40" r="R11"/>
+      <c s="40" r="S11"/>
+      <c s="23" r="T11"/>
+      <c s="40" r="U11"/>
+      <c s="40" r="V11"/>
     </row>
     <row r="12">
-      <c s="30" r="A12"/>
-      <c s="77" r="B12">
+      <c s="32" r="A12"/>
+      <c s="81" r="B12">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C12">
+      <c t="s" s="24" r="C12">
         <v>31</v>
       </c>
-      <c s="17" r="D12">
+      <c s="19" r="D12">
         <v>1</v>
       </c>
-      <c s="56" r="E12"/>
-      <c s="56" r="F12"/>
-      <c s="56" r="G12"/>
-      <c s="50" r="H12"/>
-      <c s="12" r="I12"/>
-      <c s="12" r="J12"/>
-      <c s="12" r="K12"/>
-      <c s="12" r="L12"/>
-      <c s="12" r="M12"/>
-      <c s="12" r="N12"/>
-      <c s="12" r="O12"/>
-      <c s="12" r="P12"/>
-      <c s="49" r="Q12"/>
-      <c s="12" r="R12"/>
-      <c s="12" r="S12"/>
-      <c s="12" r="T12"/>
-      <c s="12" r="U12"/>
-      <c s="12" r="V12"/>
+      <c s="58" r="E12"/>
+      <c s="58" r="F12"/>
+      <c s="58" r="G12"/>
+      <c s="58" r="H12"/>
+      <c s="58" r="I12"/>
+      <c s="58" r="J12"/>
+      <c s="52" r="K12"/>
+      <c s="14" r="L12"/>
+      <c s="14" r="M12"/>
+      <c s="14" r="N12"/>
+      <c s="14" r="O12"/>
+      <c s="14" r="P12"/>
+      <c s="51" r="Q12"/>
+      <c s="14" r="R12"/>
+      <c s="14" r="S12"/>
+      <c s="14" r="T12"/>
+      <c s="14" r="U12"/>
+      <c s="14" r="V12"/>
     </row>
     <row r="13">
-      <c s="30" r="A13"/>
-      <c s="32" r="B13"/>
-      <c t="s" s="66" r="C13">
+      <c s="32" r="A13"/>
+      <c s="34" r="B13"/>
+      <c t="s" s="69" r="C13">
         <v>32</v>
       </c>
-      <c s="58" r="D13"/>
-      <c s="78" r="E13"/>
-      <c s="78" r="F13"/>
-      <c s="78" r="G13"/>
-      <c s="58" r="H13"/>
-      <c s="58" r="I13"/>
-      <c s="58" r="J13"/>
-      <c s="58" r="K13"/>
-      <c s="58" r="L13"/>
-      <c s="58" r="M13"/>
-      <c s="58" r="N13"/>
-      <c s="58" r="O13"/>
-      <c s="58" r="P13"/>
-      <c s="58" r="Q13"/>
-      <c s="58" r="R13"/>
-      <c s="58" r="S13"/>
-      <c s="58" r="T13"/>
-      <c s="58" r="U13"/>
-      <c s="58" r="V13"/>
+      <c s="60" r="D13"/>
+      <c s="82" r="E13"/>
+      <c s="82" r="F13"/>
+      <c s="82" r="G13"/>
+      <c s="72" r="H13"/>
+      <c s="72" r="I13"/>
+      <c s="72" r="J13"/>
+      <c s="60" r="K13"/>
+      <c s="60" r="L13"/>
+      <c s="60" r="M13"/>
+      <c s="60" r="N13"/>
+      <c s="60" r="O13"/>
+      <c s="60" r="P13"/>
+      <c s="60" r="Q13"/>
+      <c s="60" r="R13"/>
+      <c s="60" r="S13"/>
+      <c s="60" r="T13"/>
+      <c s="60" r="U13"/>
+      <c s="60" r="V13"/>
     </row>
     <row r="14">
-      <c s="30" r="A14"/>
-      <c s="77" r="B14">
+      <c s="32" r="A14"/>
+      <c s="81" r="B14">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C14">
+      <c t="s" s="24" r="C14">
         <v>33</v>
       </c>
-      <c s="73" r="D14">
+      <c s="77" r="D14">
         <v>8</v>
       </c>
-      <c s="21" r="E14"/>
-      <c s="39" r="F14"/>
-      <c s="38" r="G14"/>
-      <c s="18" r="H14"/>
-      <c s="12" r="I14"/>
-      <c s="12" r="J14"/>
-      <c s="12" r="K14"/>
-      <c s="12" r="L14"/>
-      <c s="12" r="M14"/>
-      <c s="21" r="N14"/>
-      <c s="39" r="O14"/>
-      <c s="39" r="P14"/>
-      <c s="49" r="Q14"/>
-      <c s="39" r="R14"/>
-      <c s="39" r="S14"/>
-      <c s="21" r="T14"/>
-      <c s="39" r="U14"/>
-      <c s="39" r="V14"/>
+      <c s="23" r="E14"/>
+      <c s="40" r="F14"/>
+      <c s="9" r="G14"/>
+      <c s="31" r="H14"/>
+      <c s="4" r="I14"/>
+      <c s="4" r="J14"/>
+      <c s="52" r="K14"/>
+      <c s="14" r="L14"/>
+      <c s="14" r="M14"/>
+      <c s="23" r="N14"/>
+      <c s="40" r="O14"/>
+      <c s="40" r="P14"/>
+      <c s="51" r="Q14"/>
+      <c s="40" r="R14"/>
+      <c s="40" r="S14"/>
+      <c s="23" r="T14"/>
+      <c s="40" r="U14"/>
+      <c s="40" r="V14"/>
     </row>
     <row r="15">
-      <c s="30" r="A15"/>
-      <c s="77" r="B15">
+      <c s="32" r="A15"/>
+      <c s="81" r="B15">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C15">
+      <c t="s" s="24" r="C15">
         <v>34</v>
       </c>
-      <c s="73" r="D15">
+      <c s="77" r="D15">
         <v>10</v>
       </c>
-      <c s="21" r="E15"/>
-      <c s="39" r="F15"/>
-      <c s="39" r="G15"/>
-      <c s="12" r="H15"/>
-      <c s="12" r="I15"/>
-      <c s="12" r="J15"/>
-      <c s="12" r="K15"/>
-      <c s="12" r="L15"/>
-      <c s="12" r="M15"/>
-      <c s="12" r="N15"/>
-      <c s="12" r="O15"/>
-      <c s="39" r="P15"/>
-      <c s="49" r="Q15"/>
-      <c s="39" r="R15"/>
-      <c s="39" r="S15"/>
-      <c s="21" r="T15"/>
-      <c s="39" r="U15"/>
-      <c s="39" r="V15"/>
+      <c s="23" r="E15"/>
+      <c s="40" r="F15"/>
+      <c s="64" r="G15"/>
+      <c s="31" r="H15"/>
+      <c s="17" r="I15"/>
+      <c s="74" r="J15"/>
+      <c s="14" r="K15"/>
+      <c s="14" r="L15"/>
+      <c s="14" r="M15"/>
+      <c s="14" r="N15"/>
+      <c s="14" r="O15"/>
+      <c s="40" r="P15"/>
+      <c s="51" r="Q15"/>
+      <c s="40" r="R15"/>
+      <c s="40" r="S15"/>
+      <c s="23" r="T15"/>
+      <c s="40" r="U15"/>
+      <c s="40" r="V15"/>
     </row>
     <row r="16">
-      <c s="30" r="A16"/>
-      <c s="77" r="B16">
+      <c s="32" r="A16"/>
+      <c s="81" r="B16">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C16">
+      <c t="s" s="24" r="C16">
         <v>35</v>
       </c>
-      <c s="73" r="D16">
+      <c s="77" r="D16">
         <v>10</v>
       </c>
-      <c s="21" r="E16"/>
-      <c s="39" r="F16"/>
-      <c s="39" r="G16"/>
-      <c s="21" r="H16"/>
-      <c s="39" r="I16"/>
-      <c s="28" r="J16"/>
-      <c s="21" r="K16"/>
-      <c s="12" r="L16"/>
-      <c s="12" r="M16"/>
-      <c s="12" r="N16"/>
-      <c s="12" r="O16"/>
-      <c s="12" r="P16"/>
-      <c s="49" r="Q16"/>
-      <c s="12" r="R16"/>
-      <c s="12" r="S16"/>
-      <c s="21" r="T16"/>
-      <c s="39" r="U16"/>
-      <c s="39" r="V16"/>
+      <c s="23" r="E16"/>
+      <c s="40" r="F16"/>
+      <c s="40" r="G16"/>
+      <c s="67" r="H16"/>
+      <c s="78" r="I16"/>
+      <c s="78" r="J16"/>
+      <c s="26" r="K16"/>
+      <c s="14" r="L16"/>
+      <c s="14" r="M16"/>
+      <c s="14" r="N16"/>
+      <c s="14" r="O16"/>
+      <c s="14" r="P16"/>
+      <c s="51" r="Q16"/>
+      <c s="14" r="R16"/>
+      <c s="14" r="S16"/>
+      <c s="23" r="T16"/>
+      <c s="40" r="U16"/>
+      <c s="40" r="V16"/>
     </row>
     <row r="17">
-      <c s="30" r="A17"/>
-      <c s="77" r="B17">
+      <c s="32" r="A17"/>
+      <c s="81" r="B17">
         <v>4</v>
       </c>
-      <c t="s" s="22" r="C17">
+      <c t="s" s="24" r="C17">
         <v>36</v>
       </c>
-      <c s="73" r="D17">
+      <c s="77" r="D17">
         <v>4</v>
       </c>
-      <c s="21" r="E17"/>
-      <c s="39" r="F17"/>
-      <c s="39" r="G17"/>
-      <c s="21" r="H17"/>
-      <c s="39" r="I17"/>
-      <c s="28" r="J17"/>
-      <c s="21" r="K17"/>
-      <c s="39" r="L17"/>
-      <c s="39" r="M17"/>
-      <c s="21" r="N17"/>
-      <c s="39" r="O17"/>
-      <c s="39" r="P17"/>
-      <c s="49" r="Q17"/>
-      <c s="12" r="R17"/>
-      <c s="12" r="S17"/>
-      <c s="12" r="T17"/>
-      <c s="39" r="U17"/>
-      <c s="39" r="V17"/>
+      <c s="23" r="E17"/>
+      <c s="40" r="F17"/>
+      <c s="40" r="G17"/>
+      <c s="23" r="H17"/>
+      <c s="3" r="I17"/>
+      <c s="58" r="J17"/>
+      <c s="26" r="K17"/>
+      <c s="40" r="L17"/>
+      <c s="40" r="M17"/>
+      <c s="23" r="N17"/>
+      <c s="40" r="O17"/>
+      <c s="40" r="P17"/>
+      <c s="51" r="Q17"/>
+      <c s="14" r="R17"/>
+      <c s="14" r="S17"/>
+      <c s="14" r="T17"/>
+      <c s="40" r="U17"/>
+      <c s="40" r="V17"/>
     </row>
     <row r="18">
-      <c s="30" r="A18"/>
-      <c s="77" r="B18">
+      <c s="32" r="A18"/>
+      <c s="81" r="B18">
         <v>5</v>
       </c>
-      <c t="s" s="22" r="C18">
+      <c t="s" s="24" r="C18">
         <v>37</v>
       </c>
-      <c s="73" r="D18">
+      <c s="77" r="D18">
         <v>2</v>
       </c>
-      <c s="21" r="E18"/>
-      <c s="39" r="F18"/>
-      <c s="39" r="G18"/>
-      <c s="21" r="H18"/>
-      <c s="39" r="I18"/>
-      <c s="39" r="J18"/>
-      <c s="21" r="K18"/>
-      <c s="39" r="L18"/>
-      <c s="39" r="M18"/>
-      <c s="21" r="N18"/>
-      <c s="28" r="O18"/>
-      <c s="39" r="P18"/>
-      <c s="49" r="Q18"/>
-      <c s="39" r="R18"/>
-      <c s="12" r="S18"/>
-      <c s="12" r="T18"/>
-      <c s="39" r="U18"/>
-      <c s="39" r="V18"/>
+      <c s="23" r="E18"/>
+      <c s="40" r="F18"/>
+      <c s="40" r="G18"/>
+      <c s="29" r="H18"/>
+      <c s="58" r="I18"/>
+      <c s="58" r="J18"/>
+      <c s="26" r="K18"/>
+      <c s="40" r="L18"/>
+      <c s="40" r="M18"/>
+      <c s="23" r="N18"/>
+      <c s="30" r="O18"/>
+      <c s="40" r="P18"/>
+      <c s="51" r="Q18"/>
+      <c s="40" r="R18"/>
+      <c s="14" r="S18"/>
+      <c s="14" r="T18"/>
+      <c s="40" r="U18"/>
+      <c s="40" r="V18"/>
     </row>
     <row r="19">
-      <c s="30" r="A19"/>
-      <c s="77" r="B19">
+      <c s="32" r="A19"/>
+      <c s="81" r="B19">
         <v>6</v>
       </c>
-      <c t="s" s="22" r="C19">
+      <c t="s" s="24" r="C19">
         <v>38</v>
       </c>
-      <c s="73" r="D19">
+      <c s="77" r="D19">
         <v>6</v>
       </c>
-      <c s="21" r="E19"/>
-      <c s="39" r="F19"/>
-      <c s="39" r="G19"/>
-      <c s="21" r="H19"/>
-      <c s="39" r="I19"/>
-      <c s="39" r="J19"/>
-      <c s="21" r="K19"/>
-      <c s="39" r="L19"/>
-      <c s="39" r="M19"/>
-      <c s="12" r="N19"/>
-      <c s="12" r="O19"/>
-      <c s="12" r="P19"/>
-      <c s="49" r="Q19"/>
-      <c s="39" r="R19"/>
-      <c s="39" r="S19"/>
-      <c s="21" r="T19"/>
-      <c s="39" r="U19"/>
-      <c s="39" r="V19"/>
+      <c s="23" r="E19"/>
+      <c s="40" r="F19"/>
+      <c s="40" r="G19"/>
+      <c s="23" r="H19"/>
+      <c s="75" r="I19"/>
+      <c s="58" r="J19"/>
+      <c s="26" r="K19"/>
+      <c s="40" r="L19"/>
+      <c s="40" r="M19"/>
+      <c s="14" r="N19"/>
+      <c s="14" r="O19"/>
+      <c s="14" r="P19"/>
+      <c s="51" r="Q19"/>
+      <c s="40" r="R19"/>
+      <c s="40" r="S19"/>
+      <c s="23" r="T19"/>
+      <c s="40" r="U19"/>
+      <c s="40" r="V19"/>
     </row>
     <row r="20">
-      <c s="30" r="A20"/>
-      <c s="32" r="B20"/>
-      <c t="s" s="68" r="C20">
+      <c s="32" r="A20"/>
+      <c s="34" r="B20"/>
+      <c t="s" s="71" r="C20">
         <v>39</v>
       </c>
-      <c s="73" r="D20"/>
-      <c s="58" r="E20"/>
-      <c s="31" r="F20"/>
-      <c s="58" r="G20"/>
-      <c s="58" r="H20"/>
-      <c s="58" r="I20"/>
-      <c s="58" r="J20"/>
-      <c s="58" r="K20"/>
-      <c s="58" r="L20"/>
-      <c s="58" r="M20"/>
-      <c s="58" r="N20"/>
-      <c s="58" r="O20"/>
-      <c s="58" r="P20"/>
-      <c s="58" r="Q20"/>
-      <c s="58" r="R20"/>
-      <c s="58" r="S20"/>
-      <c s="58" r="T20"/>
-      <c s="58" r="U20"/>
-      <c s="58" r="V20"/>
+      <c s="77" r="D20"/>
+      <c s="60" r="E20"/>
+      <c s="33" r="F20"/>
+      <c s="60" r="G20"/>
+      <c s="60" r="H20"/>
+      <c s="60" r="I20"/>
+      <c s="82" r="J20"/>
+      <c s="60" r="K20"/>
+      <c s="60" r="L20"/>
+      <c s="60" r="M20"/>
+      <c s="60" r="N20"/>
+      <c s="60" r="O20"/>
+      <c s="60" r="P20"/>
+      <c s="60" r="Q20"/>
+      <c s="60" r="R20"/>
+      <c s="60" r="S20"/>
+      <c s="60" r="T20"/>
+      <c s="60" r="U20"/>
+      <c s="60" r="V20"/>
     </row>
     <row r="21">
-      <c s="30" r="A21"/>
-      <c s="77" r="B21">
+      <c s="32" r="A21"/>
+      <c s="81" r="B21">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C21">
+      <c t="s" s="24" r="C21">
         <v>40</v>
       </c>
-      <c s="73" r="D21">
+      <c s="77" r="D21">
         <v>1</v>
       </c>
-      <c s="27" r="E21"/>
-      <c s="37" r="F21"/>
+      <c s="29" r="E21"/>
+      <c s="39" r="F21"/>
       <c s="2" r="G21"/>
-      <c s="21" r="H21"/>
-      <c s="39" r="I21"/>
-      <c s="39" r="J21"/>
-      <c s="21" r="K21"/>
-      <c s="28" r="L21"/>
-      <c s="28" r="M21"/>
-      <c s="21" r="N21"/>
-      <c s="28" r="O21"/>
-      <c s="39" r="P21"/>
-      <c s="49" r="Q21"/>
-      <c s="39" r="R21"/>
-      <c s="39" r="S21"/>
-      <c s="21" r="T21"/>
-      <c s="39" r="U21"/>
-      <c s="39" r="V21"/>
+      <c s="45" r="H21"/>
+      <c s="18" r="I21"/>
+      <c s="40" r="J21"/>
+      <c s="23" r="K21"/>
+      <c s="30" r="L21"/>
+      <c s="30" r="M21"/>
+      <c s="23" r="N21"/>
+      <c s="30" r="O21"/>
+      <c s="40" r="P21"/>
+      <c s="51" r="Q21"/>
+      <c s="40" r="R21"/>
+      <c s="40" r="S21"/>
+      <c s="23" r="T21"/>
+      <c s="40" r="U21"/>
+      <c s="40" r="V21"/>
     </row>
     <row r="22">
-      <c s="30" r="A22"/>
-      <c s="77" r="B22">
+      <c s="32" r="A22"/>
+      <c s="81" r="B22">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C22">
+      <c t="s" s="24" r="C22">
         <v>41</v>
       </c>
-      <c s="73" r="D22">
+      <c s="77" r="D22">
         <v>4</v>
       </c>
-      <c s="21" r="E22"/>
-      <c s="57" r="F22"/>
-      <c s="39" r="G22"/>
-      <c s="12" r="H22"/>
-      <c s="12" r="I22"/>
-      <c s="12" r="J22"/>
-      <c s="21" r="K22"/>
-      <c s="28" r="L22"/>
-      <c s="28" r="M22"/>
-      <c s="21" r="N22"/>
-      <c s="28" r="O22"/>
-      <c s="39" r="P22"/>
-      <c s="49" r="Q22"/>
-      <c s="39" r="R22"/>
-      <c s="39" r="S22"/>
-      <c s="21" r="T22"/>
-      <c s="39" r="U22"/>
-      <c s="39" r="V22"/>
+      <c s="23" r="E22"/>
+      <c s="59" r="F22"/>
+      <c s="64" r="G22"/>
+      <c s="58" r="H22"/>
+      <c s="58" r="I22"/>
+      <c s="52" r="J22"/>
+      <c s="23" r="K22"/>
+      <c s="30" r="L22"/>
+      <c s="30" r="M22"/>
+      <c s="23" r="N22"/>
+      <c s="30" r="O22"/>
+      <c s="40" r="P22"/>
+      <c s="51" r="Q22"/>
+      <c s="40" r="R22"/>
+      <c s="40" r="S22"/>
+      <c s="23" r="T22"/>
+      <c s="40" r="U22"/>
+      <c s="40" r="V22"/>
     </row>
     <row r="23">
-      <c s="30" r="A23"/>
-      <c s="77" r="B23">
+      <c s="32" r="A23"/>
+      <c s="81" r="B23">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C23">
+      <c t="s" s="24" r="C23">
         <v>42</v>
       </c>
-      <c s="73" r="D23">
+      <c s="77" r="D23">
         <v>8</v>
       </c>
-      <c s="21" r="E23"/>
-      <c s="39" r="F23"/>
-      <c s="39" r="G23"/>
-      <c s="21" r="H23"/>
-      <c s="39" r="I23"/>
-      <c s="12" r="J23"/>
-      <c s="12" r="K23"/>
-      <c s="12" r="L23"/>
-      <c s="12" r="M23"/>
-      <c s="21" r="N23"/>
-      <c s="28" r="O23"/>
-      <c s="39" r="P23"/>
-      <c s="49" r="Q23"/>
-      <c s="39" r="R23"/>
-      <c s="39" r="S23"/>
-      <c s="21" r="T23"/>
-      <c s="39" r="U23"/>
-      <c s="39" r="V23"/>
+      <c s="23" r="E23"/>
+      <c s="40" r="F23"/>
+      <c s="40" r="G23"/>
+      <c s="68" r="H23"/>
+      <c s="43" r="I23"/>
+      <c s="14" r="J23"/>
+      <c s="14" r="K23"/>
+      <c s="14" r="L23"/>
+      <c s="14" r="M23"/>
+      <c s="23" r="N23"/>
+      <c s="30" r="O23"/>
+      <c s="40" r="P23"/>
+      <c s="51" r="Q23"/>
+      <c s="40" r="R23"/>
+      <c s="40" r="S23"/>
+      <c s="23" r="T23"/>
+      <c s="40" r="U23"/>
+      <c s="40" r="V23"/>
     </row>
     <row r="24">
-      <c s="30" r="A24"/>
-      <c s="77" r="B24">
+      <c s="32" r="A24"/>
+      <c s="81" r="B24">
         <v>4</v>
       </c>
-      <c t="s" s="22" r="C24">
+      <c t="s" s="24" r="C24">
         <v>43</v>
       </c>
-      <c s="73" r="D24">
+      <c s="77" r="D24">
         <v>4</v>
       </c>
-      <c s="21" r="E24"/>
-      <c s="39" r="F24"/>
-      <c s="39" r="G24"/>
-      <c s="21" r="H24"/>
-      <c s="39" r="I24"/>
-      <c s="39" r="J24"/>
-      <c s="21" r="K24"/>
-      <c s="28" r="L24"/>
-      <c s="28" r="M24"/>
-      <c s="12" r="N24"/>
-      <c s="12" r="O24"/>
-      <c s="12" r="P24"/>
-      <c s="49" r="Q24"/>
-      <c s="39" r="R24"/>
-      <c s="39" r="S24"/>
-      <c s="21" r="T24"/>
-      <c s="39" r="U24"/>
-      <c s="39" r="V24"/>
+      <c s="23" r="E24"/>
+      <c s="40" r="F24"/>
+      <c s="40" r="G24"/>
+      <c s="29" r="H24"/>
+      <c s="58" r="I24"/>
+      <c s="2" r="J24"/>
+      <c s="23" r="K24"/>
+      <c s="30" r="L24"/>
+      <c s="30" r="M24"/>
+      <c s="14" r="N24"/>
+      <c s="14" r="O24"/>
+      <c s="14" r="P24"/>
+      <c s="51" r="Q24"/>
+      <c s="40" r="R24"/>
+      <c s="40" r="S24"/>
+      <c s="23" r="T24"/>
+      <c s="40" r="U24"/>
+      <c s="40" r="V24"/>
     </row>
     <row r="25">
-      <c s="30" r="A25"/>
-      <c s="77" r="B25"/>
-      <c t="s" s="68" r="C25">
+      <c s="32" r="A25"/>
+      <c s="81" r="B25"/>
+      <c t="s" s="71" r="C25">
         <v>44</v>
       </c>
-      <c s="73" r="D25"/>
-      <c s="31" r="E25"/>
-      <c s="31" r="F25"/>
-      <c s="58" r="G25"/>
-      <c s="58" r="H25"/>
-      <c s="58" r="I25"/>
-      <c s="58" r="J25"/>
-      <c s="58" r="K25"/>
-      <c s="58" r="L25"/>
-      <c s="58" r="M25"/>
-      <c s="58" r="N25"/>
-      <c s="58" r="O25"/>
-      <c s="58" r="P25"/>
-      <c s="58" r="Q25"/>
-      <c s="58" r="R25"/>
-      <c s="58" r="S25"/>
-      <c s="58" r="T25"/>
-      <c s="58" r="U25"/>
-      <c s="58" r="V25"/>
+      <c s="77" r="D25"/>
+      <c s="33" r="E25"/>
+      <c s="33" r="F25"/>
+      <c s="60" r="G25"/>
+      <c s="60" r="H25"/>
+      <c s="82" r="I25"/>
+      <c s="60" r="J25"/>
+      <c s="60" r="K25"/>
+      <c s="60" r="L25"/>
+      <c s="60" r="M25"/>
+      <c s="60" r="N25"/>
+      <c s="60" r="O25"/>
+      <c s="60" r="P25"/>
+      <c s="60" r="Q25"/>
+      <c s="60" r="R25"/>
+      <c s="60" r="S25"/>
+      <c s="60" r="T25"/>
+      <c s="60" r="U25"/>
+      <c s="60" r="V25"/>
     </row>
     <row r="26">
-      <c s="30" r="A26"/>
-      <c s="77" r="B26">
+      <c s="32" r="A26"/>
+      <c s="81" r="B26">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C26">
+      <c t="s" s="24" r="C26">
         <v>45</v>
       </c>
-      <c s="17" r="D26">
+      <c s="19" r="D26">
         <v>1</v>
       </c>
-      <c s="29" r="E26"/>
-      <c s="29" r="F26"/>
+      <c s="31" r="E26"/>
+      <c s="31" r="F26"/>
       <c s="2" r="G26"/>
-      <c s="21" r="H26"/>
-      <c s="39" r="I26"/>
-      <c s="39" r="J26"/>
-      <c s="21" r="K26"/>
-      <c s="39" r="L26"/>
-      <c s="39" r="M26"/>
-      <c s="21" r="N26"/>
-      <c s="39" r="O26"/>
-      <c s="39" r="P26"/>
-      <c s="49" r="Q26"/>
-      <c s="39" r="R26"/>
-      <c s="39" r="S26"/>
-      <c s="21" r="T26"/>
-      <c s="39" r="U26"/>
-      <c s="39" r="V26"/>
+      <c s="23" r="H26"/>
+      <c s="40" r="I26"/>
+      <c s="40" r="J26"/>
+      <c s="23" r="K26"/>
+      <c s="40" r="L26"/>
+      <c s="40" r="M26"/>
+      <c s="23" r="N26"/>
+      <c s="40" r="O26"/>
+      <c s="40" r="P26"/>
+      <c s="51" r="Q26"/>
+      <c s="40" r="R26"/>
+      <c s="40" r="S26"/>
+      <c s="23" r="T26"/>
+      <c s="40" r="U26"/>
+      <c s="40" r="V26"/>
     </row>
     <row r="27">
-      <c s="30" r="A27"/>
-      <c s="77" r="B27">
+      <c s="32" r="A27"/>
+      <c s="81" r="B27">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C27">
+      <c t="s" s="24" r="C27">
         <v>46</v>
       </c>
-      <c s="17" r="D27">
+      <c s="19" r="D27">
         <v>3</v>
       </c>
-      <c s="29" r="E27"/>
-      <c s="29" r="F27"/>
-      <c s="19" r="G27"/>
-      <c s="21" r="H27"/>
-      <c s="39" r="I27"/>
-      <c s="39" r="J27"/>
-      <c s="21" r="K27"/>
-      <c s="39" r="L27"/>
-      <c s="39" r="M27"/>
-      <c s="21" r="N27"/>
-      <c s="39" r="O27"/>
-      <c s="39" r="P27"/>
-      <c s="49" r="Q27"/>
-      <c s="39" r="R27"/>
-      <c s="39" r="S27"/>
-      <c s="21" r="T27"/>
-      <c s="39" r="U27"/>
-      <c s="39" r="V27"/>
+      <c s="31" r="E27"/>
+      <c s="31" r="F27"/>
+      <c s="21" r="G27"/>
+      <c s="23" r="H27"/>
+      <c s="40" r="I27"/>
+      <c s="40" r="J27"/>
+      <c s="23" r="K27"/>
+      <c s="40" r="L27"/>
+      <c s="40" r="M27"/>
+      <c s="23" r="N27"/>
+      <c s="40" r="O27"/>
+      <c s="40" r="P27"/>
+      <c s="51" r="Q27"/>
+      <c s="40" r="R27"/>
+      <c s="40" r="S27"/>
+      <c s="23" r="T27"/>
+      <c s="40" r="U27"/>
+      <c s="40" r="V27"/>
     </row>
     <row r="28">
-      <c s="30" r="A28"/>
-      <c s="77" r="B28">
+      <c s="32" r="A28"/>
+      <c s="81" r="B28">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C28">
+      <c t="s" s="24" r="C28">
         <v>47</v>
       </c>
-      <c s="17" r="D28">
+      <c s="19" r="D28">
         <v>2</v>
       </c>
-      <c s="29" r="E28"/>
-      <c s="29" r="F28"/>
-      <c s="20" r="G28"/>
-      <c s="21" r="H28"/>
-      <c s="39" r="I28"/>
-      <c s="39" r="J28"/>
-      <c s="21" r="K28"/>
-      <c s="39" r="L28"/>
-      <c s="39" r="M28"/>
-      <c s="21" r="N28"/>
-      <c s="39" r="O28"/>
-      <c s="39" r="P28"/>
-      <c s="49" r="Q28"/>
-      <c s="39" r="R28"/>
-      <c s="39" r="S28"/>
-      <c s="21" r="T28"/>
-      <c s="39" r="U28"/>
-      <c s="39" r="V28"/>
+      <c s="31" r="E28"/>
+      <c s="31" r="F28"/>
+      <c s="22" r="G28"/>
+      <c s="23" r="H28"/>
+      <c s="40" r="I28"/>
+      <c s="40" r="J28"/>
+      <c s="23" r="K28"/>
+      <c s="40" r="L28"/>
+      <c s="40" r="M28"/>
+      <c s="23" r="N28"/>
+      <c s="40" r="O28"/>
+      <c s="40" r="P28"/>
+      <c s="51" r="Q28"/>
+      <c s="40" r="R28"/>
+      <c s="40" r="S28"/>
+      <c s="23" r="T28"/>
+      <c s="40" r="U28"/>
+      <c s="40" r="V28"/>
     </row>
     <row r="29">
-      <c s="30" r="A29"/>
-      <c s="26" r="B29"/>
-      <c t="s" s="68" r="C29">
+      <c s="32" r="A29"/>
+      <c s="28" r="B29"/>
+      <c t="s" s="71" r="C29">
         <v>49</v>
       </c>
-      <c s="73" r="D29"/>
-      <c s="69" r="E29"/>
-      <c s="69" r="F29"/>
-      <c s="58" r="G29"/>
-      <c s="58" r="H29"/>
-      <c s="58" r="I29"/>
-      <c s="58" r="J29"/>
-      <c s="58" r="K29"/>
-      <c s="58" r="L29"/>
-      <c s="58" r="M29"/>
-      <c s="58" r="N29"/>
-      <c s="58" r="O29"/>
-      <c s="58" r="P29"/>
-      <c s="58" r="Q29"/>
-      <c s="58" r="R29"/>
-      <c s="58" r="S29"/>
-      <c s="58" r="T29"/>
-      <c s="58" r="U29"/>
-      <c s="58" r="V29"/>
+      <c s="77" r="D29"/>
+      <c s="72" r="E29"/>
+      <c s="72" r="F29"/>
+      <c s="60" r="G29"/>
+      <c s="60" r="H29"/>
+      <c s="60" r="I29"/>
+      <c s="60" r="J29"/>
+      <c s="60" r="K29"/>
+      <c s="60" r="L29"/>
+      <c s="60" r="M29"/>
+      <c s="60" r="N29"/>
+      <c s="60" r="O29"/>
+      <c s="60" r="P29"/>
+      <c s="60" r="Q29"/>
+      <c s="60" r="R29"/>
+      <c s="60" r="S29"/>
+      <c s="60" r="T29"/>
+      <c s="60" r="U29"/>
+      <c s="60" r="V29"/>
     </row>
     <row r="30">
-      <c s="30" r="A30"/>
-      <c s="77" r="B30">
+      <c s="32" r="A30"/>
+      <c s="81" r="B30">
         <v>1</v>
       </c>
-      <c t="s" s="22" r="C30">
+      <c t="s" s="24" r="C30">
         <v>50</v>
       </c>
-      <c s="17" r="D30">
+      <c s="19" r="D30">
         <v>2</v>
       </c>
-      <c s="60" r="E30"/>
-      <c s="60" r="F30"/>
-      <c s="52" r="G30"/>
-      <c s="21" r="H30"/>
-      <c s="39" r="I30"/>
-      <c s="39" r="J30"/>
-      <c s="21" r="K30"/>
-      <c s="39" r="L30"/>
-      <c s="39" r="M30"/>
-      <c s="21" r="N30"/>
-      <c s="39" r="O30"/>
-      <c s="39" r="P30"/>
-      <c s="49" r="Q30"/>
-      <c s="39" r="R30"/>
-      <c s="39" r="S30"/>
-      <c s="21" r="T30"/>
-      <c s="39" r="U30"/>
-      <c s="39" r="V30"/>
+      <c s="62" r="E30"/>
+      <c s="62" r="F30"/>
+      <c s="54" r="G30"/>
+      <c s="23" r="H30"/>
+      <c s="18" r="I30"/>
+      <c s="18" r="J30"/>
+      <c s="23" r="K30"/>
+      <c s="40" r="L30"/>
+      <c s="40" r="M30"/>
+      <c s="23" r="N30"/>
+      <c s="40" r="O30"/>
+      <c s="40" r="P30"/>
+      <c s="51" r="Q30"/>
+      <c s="40" r="R30"/>
+      <c s="40" r="S30"/>
+      <c s="23" r="T30"/>
+      <c s="40" r="U30"/>
+      <c s="40" r="V30"/>
     </row>
     <row r="31">
-      <c s="30" r="A31"/>
-      <c s="77" r="B31">
+      <c s="32" r="A31"/>
+      <c s="81" r="B31">
         <v>2</v>
       </c>
-      <c t="s" s="22" r="C31">
+      <c t="s" s="24" r="C31">
         <v>51</v>
       </c>
-      <c s="73" r="D31">
+      <c s="77" r="D31">
         <v>8</v>
       </c>
-      <c s="65" r="E31"/>
-      <c s="57" r="F31"/>
-      <c s="39" r="G31"/>
-      <c s="21" r="H31"/>
-      <c s="39" r="I31"/>
-      <c s="39" r="J31"/>
-      <c s="12" r="K31"/>
-      <c s="12" r="L31"/>
-      <c s="12" r="M31"/>
-      <c s="12" r="N31"/>
-      <c s="12" r="O31"/>
-      <c s="12" r="P31"/>
-      <c s="49" r="Q31"/>
-      <c s="12" r="R31"/>
-      <c s="12" r="S31"/>
-      <c s="12" r="T31"/>
-      <c s="39" r="U31"/>
-      <c s="39" r="V31"/>
+      <c s="68" r="E31"/>
+      <c s="59" r="F31"/>
+      <c s="40" r="G31"/>
+      <c s="29" r="H31"/>
+      <c s="31" r="I31"/>
+      <c s="4" r="J31"/>
+      <c s="52" r="K31"/>
+      <c s="14" r="L31"/>
+      <c s="14" r="M31"/>
+      <c s="14" r="N31"/>
+      <c s="14" r="O31"/>
+      <c s="14" r="P31"/>
+      <c s="51" r="Q31"/>
+      <c s="14" r="R31"/>
+      <c s="14" r="S31"/>
+      <c s="14" r="T31"/>
+      <c s="40" r="U31"/>
+      <c s="40" r="V31"/>
     </row>
     <row r="32">
-      <c s="30" r="A32"/>
-      <c s="77" r="B32">
+      <c s="32" r="A32"/>
+      <c s="81" r="B32">
         <v>3</v>
       </c>
-      <c t="s" s="22" r="C32">
+      <c t="s" s="24" r="C32">
         <v>52</v>
       </c>
-      <c s="73" r="D32">
+      <c s="77" r="D32">
         <v>4</v>
       </c>
-      <c s="21" r="E32"/>
-      <c s="39" r="F32"/>
-      <c s="36" r="G32"/>
-      <c s="21" r="H32"/>
-      <c s="39" r="I32"/>
-      <c s="39" r="J32"/>
-      <c s="21" r="K32"/>
-      <c s="39" r="L32"/>
-      <c s="39" r="M32"/>
-      <c s="21" r="N32"/>
-      <c s="39" r="O32"/>
-      <c s="39" r="P32"/>
-      <c s="49" r="Q32"/>
-      <c s="39" r="R32"/>
-      <c s="39" r="S32"/>
-      <c s="21" r="T32"/>
-      <c s="39" r="U32"/>
-      <c s="39" r="V32"/>
+      <c s="23" r="E32"/>
+      <c s="40" r="F32"/>
+      <c s="38" r="G32"/>
+      <c s="23" r="H32"/>
+      <c s="59" r="I32"/>
+      <c s="59" r="J32"/>
+      <c s="23" r="K32"/>
+      <c s="40" r="L32"/>
+      <c s="40" r="M32"/>
+      <c s="23" r="N32"/>
+      <c s="40" r="O32"/>
+      <c s="40" r="P32"/>
+      <c s="51" r="Q32"/>
+      <c s="40" r="R32"/>
+      <c s="40" r="S32"/>
+      <c s="23" r="T32"/>
+      <c s="40" r="U32"/>
+      <c s="40" r="V32"/>
     </row>
     <row r="33">
-      <c s="30" r="A33"/>
-      <c s="77" r="B33">
+      <c s="32" r="A33"/>
+      <c s="81" r="B33">
         <v>4</v>
       </c>
-      <c t="s" s="22" r="C33">
+      <c t="s" s="24" r="C33">
         <v>53</v>
       </c>
-      <c s="73" r="D33">
+      <c s="77" r="D33">
         <v>3</v>
       </c>
-      <c s="21" r="E33"/>
-      <c s="39" r="F33"/>
-      <c s="23" r="G33"/>
-      <c s="21" r="H33"/>
-      <c s="39" r="I33"/>
-      <c s="39" r="J33"/>
-      <c s="21" r="K33"/>
-      <c s="39" r="L33"/>
-      <c s="39" r="M33"/>
-      <c s="21" r="N33"/>
-      <c s="39" r="O33"/>
-      <c s="39" r="P33"/>
-      <c s="49" r="Q33"/>
-      <c s="39" r="R33"/>
-      <c s="39" r="S33"/>
-      <c s="21" r="T33"/>
-      <c s="39" r="U33"/>
-      <c s="39" r="V33"/>
+      <c s="23" r="E33"/>
+      <c s="40" r="F33"/>
+      <c s="25" r="G33"/>
+      <c s="23" r="H33"/>
+      <c s="40" r="I33"/>
+      <c s="40" r="J33"/>
+      <c s="23" r="K33"/>
+      <c s="40" r="L33"/>
+      <c s="40" r="M33"/>
+      <c s="23" r="N33"/>
+      <c s="40" r="O33"/>
+      <c s="40" r="P33"/>
+      <c s="51" r="Q33"/>
+      <c s="40" r="R33"/>
+      <c s="40" r="S33"/>
+      <c s="23" r="T33"/>
+      <c s="40" r="U33"/>
+      <c s="40" r="V33"/>
     </row>
     <row r="34">
-      <c s="30" r="A34"/>
-      <c s="26" r="B34"/>
-      <c s="6" r="C34"/>
-      <c s="9" r="D34">
+      <c s="32" r="A34"/>
+      <c s="28" r="B34"/>
+      <c s="7" r="C34"/>
+      <c s="11" r="D34">
         <f>SUM(D14:D33)</f>
         <v>80</v>
       </c>
-      <c s="33" r="E34"/>
-      <c s="33" r="F34"/>
-      <c s="33" r="G34"/>
-      <c s="33" r="H34"/>
-      <c s="33" r="I34"/>
-      <c s="33" r="J34"/>
-      <c s="33" r="K34"/>
-      <c s="33" r="L34"/>
-      <c s="33" r="M34"/>
-      <c s="33" r="N34"/>
-      <c s="33" r="O34"/>
-      <c s="33" r="P34"/>
-      <c s="33" r="Q34"/>
-      <c s="33" r="R34"/>
-      <c s="33" r="S34"/>
-      <c s="33" r="T34"/>
-      <c s="33" r="U34"/>
-      <c s="33" r="V34"/>
+      <c s="35" r="E34"/>
+      <c s="35" r="F34"/>
+      <c s="35" r="G34"/>
+      <c s="35" r="H34"/>
+      <c s="35" r="I34"/>
+      <c s="35" r="J34"/>
+      <c s="35" r="K34"/>
+      <c s="35" r="L34"/>
+      <c s="35" r="M34"/>
+      <c s="35" r="N34"/>
+      <c s="35" r="O34"/>
+      <c s="35" r="P34"/>
+      <c s="35" r="Q34"/>
+      <c s="35" r="R34"/>
+      <c s="35" r="S34"/>
+      <c s="35" r="T34"/>
+      <c s="35" r="U34"/>
+      <c s="35" r="V34"/>
     </row>
     <row r="35">
-      <c s="13" r="A35"/>
-      <c s="34" r="B35"/>
-      <c s="34" r="C35"/>
-      <c s="34" r="D35"/>
-      <c s="34" r="E35"/>
-      <c s="34" r="F35"/>
-      <c s="34" r="G35"/>
-      <c s="34" r="H35"/>
-      <c s="34" r="I35"/>
-      <c s="34" r="J35"/>
-      <c s="34" r="K35"/>
-      <c s="34" r="L35"/>
-      <c s="34" r="M35"/>
-      <c s="34" r="N35"/>
-      <c s="34" r="O35"/>
-      <c s="34" r="P35"/>
-      <c s="34" r="Q35"/>
-      <c s="34" r="R35"/>
-      <c s="34" r="S35"/>
-      <c s="34" r="T35"/>
-      <c s="34" r="U35"/>
-      <c s="34" r="V35"/>
+      <c s="15" r="A35"/>
+      <c s="36" r="B35"/>
+      <c s="36" r="C35"/>
+      <c s="36" r="D35"/>
+      <c s="36" r="E35"/>
+      <c s="36" r="F35"/>
+      <c s="36" r="G35"/>
+      <c s="36" r="H35"/>
+      <c s="36" r="I35"/>
+      <c s="36" r="J35"/>
+      <c s="36" r="K35"/>
+      <c s="36" r="L35"/>
+      <c s="36" r="M35"/>
+      <c s="36" r="N35"/>
+      <c s="36" r="O35"/>
+      <c s="36" r="P35"/>
+      <c s="36" r="Q35"/>
+      <c s="36" r="R35"/>
+      <c s="36" r="S35"/>
+      <c s="36" r="T35"/>
+      <c s="36" r="U35"/>
+      <c s="36" r="V35"/>
     </row>
     <row r="36">
-      <c s="13" r="A36"/>
-      <c s="13" r="B36"/>
-      <c s="13" r="C36"/>
-      <c s="13" r="D36"/>
-      <c s="53" r="E36"/>
-      <c s="13" r="F36"/>
-      <c s="13" r="G36"/>
-      <c s="13" r="H36"/>
-      <c s="13" r="I36"/>
-      <c s="13" r="J36"/>
-      <c s="13" r="K36"/>
-      <c s="13" r="L36"/>
-      <c s="13" r="M36"/>
-      <c s="13" r="N36"/>
-      <c s="13" r="O36"/>
-      <c s="13" r="P36"/>
-      <c s="13" r="Q36"/>
-      <c s="13" r="R36"/>
-      <c s="13" r="S36"/>
-      <c s="13" r="T36"/>
-      <c s="13" r="U36"/>
-      <c s="13" r="V36"/>
+      <c s="15" r="A36"/>
+      <c s="15" r="B36"/>
+      <c s="15" r="C36"/>
+      <c s="15" r="D36"/>
+      <c s="55" r="E36"/>
+      <c s="15" r="F36"/>
+      <c s="15" r="G36"/>
+      <c s="15" r="H36"/>
+      <c s="15" r="I36"/>
+      <c s="15" r="J36"/>
+      <c s="15" r="K36"/>
+      <c s="15" r="L36"/>
+      <c s="15" r="M36"/>
+      <c s="15" r="N36"/>
+      <c s="15" r="O36"/>
+      <c s="15" r="P36"/>
+      <c s="15" r="Q36"/>
+      <c s="15" r="R36"/>
+      <c s="15" r="S36"/>
+      <c s="15" r="T36"/>
+      <c s="15" r="U36"/>
+      <c s="15" r="V36"/>
     </row>
     <row r="37">
-      <c s="13" r="A37"/>
-      <c s="13" r="B37"/>
-      <c s="13" r="C37"/>
-      <c s="13" r="D37"/>
-      <c s="13" r="E37"/>
-      <c s="13" r="F37"/>
-      <c s="13" r="G37"/>
-      <c s="13" r="H37"/>
-      <c s="13" r="I37"/>
-      <c s="13" r="J37"/>
-      <c s="13" r="K37"/>
-      <c s="13" r="L37"/>
-      <c s="13" r="M37"/>
-      <c s="13" r="N37"/>
-      <c s="13" r="O37"/>
-      <c s="13" r="P37"/>
-      <c s="13" r="Q37"/>
-      <c s="13" r="R37"/>
-      <c s="13" r="S37"/>
-      <c s="13" r="T37"/>
-      <c s="13" r="U37"/>
-      <c s="13" r="V37"/>
+      <c s="15" r="A37"/>
+      <c s="15" r="B37"/>
+      <c s="15" r="C37"/>
+      <c s="15" r="D37"/>
+      <c s="15" r="E37"/>
+      <c s="15" r="F37"/>
+      <c s="15" r="G37"/>
+      <c s="15" r="H37"/>
+      <c s="15" r="I37"/>
+      <c s="15" r="J37"/>
+      <c s="15" r="K37"/>
+      <c s="15" r="L37"/>
+      <c s="15" r="M37"/>
+      <c s="15" r="N37"/>
+      <c s="15" r="O37"/>
+      <c s="15" r="P37"/>
+      <c s="15" r="Q37"/>
+      <c s="15" r="R37"/>
+      <c s="15" r="S37"/>
+      <c s="15" r="T37"/>
+      <c s="15" r="U37"/>
+      <c s="15" r="V37"/>
     </row>
     <row r="38">
-      <c s="13" r="A38"/>
-      <c s="13" r="B38"/>
-      <c s="13" r="C38"/>
-      <c s="13" r="D38"/>
-      <c s="13" r="H38"/>
-      <c s="13" r="I38"/>
-      <c s="13" r="J38"/>
-      <c s="13" r="K38"/>
-      <c s="13" r="L38"/>
-      <c s="13" r="M38"/>
-      <c s="13" r="N38"/>
-      <c s="13" r="O38"/>
-      <c s="13" r="P38"/>
-      <c s="13" r="Q38"/>
-      <c s="13" r="R38"/>
-      <c s="13" r="S38"/>
-      <c s="13" r="T38"/>
-      <c s="13" r="U38"/>
-      <c s="13" r="V38"/>
+      <c s="15" r="A38"/>
+      <c s="15" r="B38"/>
+      <c s="15" r="C38"/>
+      <c s="15" r="D38"/>
+      <c s="15" r="H38"/>
+      <c s="15" r="I38"/>
+      <c s="15" r="J38"/>
+      <c s="15" r="K38"/>
+      <c s="15" r="L38"/>
+      <c s="15" r="M38"/>
+      <c s="15" r="N38"/>
+      <c s="15" r="O38"/>
+      <c s="15" r="P38"/>
+      <c s="15" r="Q38"/>
+      <c s="15" r="R38"/>
+      <c s="15" r="S38"/>
+      <c s="15" r="T38"/>
+      <c s="15" r="U38"/>
+      <c s="15" r="V38"/>
     </row>
     <row r="39">
-      <c s="13" r="A39"/>
-      <c s="13" r="B39"/>
-      <c s="13" r="C39"/>
-      <c s="13" r="D39"/>
-      <c s="13" r="H39"/>
-      <c s="13" r="I39"/>
-      <c s="13" r="J39"/>
-      <c s="13" r="K39"/>
-      <c s="13" r="L39"/>
-      <c s="13" r="M39"/>
-      <c s="13" r="N39"/>
-      <c s="13" r="O39"/>
-      <c s="13" r="P39"/>
-      <c s="13" r="Q39"/>
-      <c s="13" r="R39"/>
-      <c s="13" r="S39"/>
-      <c s="13" r="T39"/>
-      <c s="13" r="U39"/>
-      <c s="13" r="V39"/>
+      <c s="15" r="A39"/>
+      <c s="15" r="B39"/>
+      <c s="15" r="C39"/>
+      <c s="15" r="D39"/>
+      <c s="15" r="H39"/>
+      <c s="15" r="I39"/>
+      <c s="15" r="J39"/>
+      <c s="15" r="K39"/>
+      <c s="15" r="L39"/>
+      <c s="15" r="M39"/>
+      <c s="15" r="N39"/>
+      <c s="15" r="O39"/>
+      <c s="15" r="P39"/>
+      <c s="15" r="Q39"/>
+      <c s="15" r="R39"/>
+      <c s="15" r="S39"/>
+      <c s="15" r="T39"/>
+      <c s="15" r="U39"/>
+      <c s="15" r="V39"/>
     </row>
     <row r="40">
-      <c s="13" r="A40"/>
-      <c s="13" r="B40"/>
-      <c s="13" r="C40"/>
-      <c s="13" r="D40"/>
-      <c s="13" r="H40"/>
-      <c s="13" r="I40"/>
-      <c s="13" r="J40"/>
-      <c s="13" r="K40"/>
-      <c s="13" r="L40"/>
-      <c s="13" r="M40"/>
-      <c s="13" r="N40"/>
-      <c s="13" r="O40"/>
-      <c s="13" r="P40"/>
-      <c s="13" r="Q40"/>
-      <c s="13" r="R40"/>
-      <c s="13" r="S40"/>
-      <c s="13" r="T40"/>
-      <c s="13" r="U40"/>
-      <c s="13" r="V40"/>
+      <c s="15" r="A40"/>
+      <c s="15" r="B40"/>
+      <c s="15" r="C40"/>
+      <c s="15" r="D40"/>
+      <c s="15" r="H40"/>
+      <c s="15" r="I40"/>
+      <c s="15" r="J40"/>
+      <c s="15" r="K40"/>
+      <c s="15" r="L40"/>
+      <c s="15" r="M40"/>
+      <c s="15" r="N40"/>
+      <c s="15" r="O40"/>
+      <c s="15" r="P40"/>
+      <c s="15" r="Q40"/>
+      <c s="15" r="R40"/>
+      <c s="15" r="S40"/>
+      <c s="15" r="T40"/>
+      <c s="15" r="U40"/>
+      <c s="15" r="V40"/>
     </row>
     <row r="41">
-      <c s="13" r="A41"/>
+      <c s="15" r="A41"/>
     </row>
     <row r="42">
-      <c s="13" r="A42"/>
-      <c t="s" s="14" r="E42">
+      <c s="15" r="A42"/>
+      <c t="s" s="16" r="E42">
         <v>55</v>
       </c>
       <c t="s" r="F42">
@@ -4972,317 +5068,317 @@
       <c t="s" r="G42">
         <v>3</v>
       </c>
-      <c s="13" r="H42">
+      <c s="15" r="H42">
         <v>62480</v>
       </c>
-      <c s="3" r="I42"/>
+      <c s="4" r="I42"/>
     </row>
     <row r="43">
-      <c s="13" r="A43"/>
-      <c s="13" r="B43"/>
-      <c s="13" r="C43"/>
-      <c s="13" r="D43"/>
-      <c s="13" r="E43"/>
-      <c t="s" s="13" r="F43">
+      <c s="15" r="A43"/>
+      <c s="15" r="B43"/>
+      <c s="15" r="C43"/>
+      <c s="15" r="D43"/>
+      <c s="15" r="E43"/>
+      <c t="s" s="15" r="F43">
         <v>4</v>
       </c>
-      <c t="s" s="13" r="G43">
+      <c t="s" s="15" r="G43">
         <v>5</v>
       </c>
-      <c s="13" r="H43">
+      <c s="15" r="H43">
         <v>71396</v>
       </c>
-      <c s="15" r="I43"/>
-      <c s="13" r="J43"/>
-      <c s="13" r="K43"/>
-      <c s="13" r="L43"/>
-      <c s="13" r="M43"/>
-      <c s="13" r="N43"/>
-      <c s="13" r="O43"/>
-      <c s="13" r="P43"/>
-      <c s="13" r="Q43"/>
-      <c s="13" r="R43"/>
-      <c s="13" r="S43"/>
-      <c s="13" r="T43"/>
-      <c s="13" r="U43"/>
-      <c s="13" r="V43"/>
+      <c s="17" r="I43"/>
+      <c s="15" r="J43"/>
+      <c s="15" r="K43"/>
+      <c s="15" r="L43"/>
+      <c s="15" r="M43"/>
+      <c s="15" r="N43"/>
+      <c s="15" r="O43"/>
+      <c s="15" r="P43"/>
+      <c s="15" r="Q43"/>
+      <c s="15" r="R43"/>
+      <c s="15" r="S43"/>
+      <c s="15" r="T43"/>
+      <c s="15" r="U43"/>
+      <c s="15" r="V43"/>
     </row>
     <row r="44">
-      <c s="13" r="A44"/>
-      <c s="13" r="B44"/>
-      <c s="13" r="C44"/>
-      <c s="13" r="D44"/>
-      <c s="13" r="E44"/>
+      <c s="15" r="A44"/>
+      <c s="15" r="B44"/>
+      <c s="15" r="C44"/>
+      <c s="15" r="D44"/>
+      <c s="15" r="E44"/>
       <c t="s" r="F44">
         <v>6</v>
       </c>
       <c t="s" r="G44">
         <v>7</v>
       </c>
-      <c s="13" r="H44">
+      <c s="15" r="H44">
         <v>71989</v>
       </c>
-      <c s="74" r="I44"/>
-      <c s="13" r="J44"/>
-      <c s="13" r="K44"/>
-      <c s="13" r="L44"/>
-      <c s="13" r="M44"/>
-      <c s="13" r="N44"/>
-      <c s="13" r="O44"/>
-      <c s="13" r="P44"/>
-      <c s="13" r="Q44"/>
-      <c s="13" r="R44"/>
-      <c s="13" r="S44"/>
-      <c s="13" r="T44"/>
-      <c s="13" r="U44"/>
-      <c s="13" r="V44"/>
+      <c s="78" r="I44"/>
+      <c s="15" r="J44"/>
+      <c s="15" r="K44"/>
+      <c s="15" r="L44"/>
+      <c s="15" r="M44"/>
+      <c s="15" r="N44"/>
+      <c s="15" r="O44"/>
+      <c s="15" r="P44"/>
+      <c s="15" r="Q44"/>
+      <c s="15" r="R44"/>
+      <c s="15" r="S44"/>
+      <c s="15" r="T44"/>
+      <c s="15" r="U44"/>
+      <c s="15" r="V44"/>
     </row>
     <row r="45">
-      <c s="13" r="A45"/>
-      <c s="13" r="B45"/>
-      <c s="13" r="C45"/>
-      <c s="13" r="D45"/>
-      <c s="13" r="E45"/>
-      <c t="s" s="13" r="F45">
+      <c s="15" r="A45"/>
+      <c s="15" r="B45"/>
+      <c s="15" r="C45"/>
+      <c s="15" r="D45"/>
+      <c s="15" r="E45"/>
+      <c t="s" s="15" r="F45">
         <v>8</v>
       </c>
-      <c t="s" s="13" r="G45">
+      <c t="s" s="15" r="G45">
         <v>9</v>
       </c>
-      <c s="13" r="H45">
+      <c s="15" r="H45">
         <v>72051</v>
       </c>
-      <c s="56" r="I45"/>
-      <c s="13" r="J45"/>
-      <c s="13" r="K45"/>
-      <c s="13" r="L45"/>
-      <c s="13" r="M45"/>
-      <c s="13" r="N45"/>
-      <c s="13" r="O45"/>
-      <c s="13" r="P45"/>
-      <c s="13" r="Q45"/>
-      <c s="13" r="R45"/>
-      <c s="13" r="S45"/>
-      <c s="13" r="T45"/>
-      <c s="13" r="U45"/>
-      <c s="13" r="V45"/>
+      <c s="58" r="I45"/>
+      <c s="15" r="J45"/>
+      <c s="15" r="K45"/>
+      <c s="15" r="L45"/>
+      <c s="15" r="M45"/>
+      <c s="15" r="N45"/>
+      <c s="15" r="O45"/>
+      <c s="15" r="P45"/>
+      <c s="15" r="Q45"/>
+      <c s="15" r="R45"/>
+      <c s="15" r="S45"/>
+      <c s="15" r="T45"/>
+      <c s="15" r="U45"/>
+      <c s="15" r="V45"/>
     </row>
     <row r="46">
-      <c s="13" r="A46"/>
-      <c s="13" r="B46"/>
-      <c s="13" r="C46"/>
-      <c s="13" r="D46"/>
-      <c s="13" r="E46"/>
+      <c s="15" r="A46"/>
+      <c s="15" r="B46"/>
+      <c s="15" r="C46"/>
+      <c s="15" r="D46"/>
+      <c s="15" r="E46"/>
       <c t="s" r="F46">
         <v>10</v>
       </c>
-      <c s="29" r="I46"/>
-      <c s="13" r="J46"/>
-      <c s="13" r="K46"/>
-      <c s="13" r="L46"/>
-      <c s="13" r="M46"/>
-      <c s="13" r="N46"/>
-      <c s="13" r="O46"/>
-      <c s="13" r="P46"/>
-      <c s="13" r="Q46"/>
-      <c s="13" r="R46"/>
-      <c s="13" r="S46"/>
-      <c s="13" r="T46"/>
-      <c s="13" r="U46"/>
-      <c s="13" r="V46"/>
+      <c s="31" r="I46"/>
+      <c s="15" r="J46"/>
+      <c s="15" r="K46"/>
+      <c s="15" r="L46"/>
+      <c s="15" r="M46"/>
+      <c s="15" r="N46"/>
+      <c s="15" r="O46"/>
+      <c s="15" r="P46"/>
+      <c s="15" r="Q46"/>
+      <c s="15" r="R46"/>
+      <c s="15" r="S46"/>
+      <c s="15" r="T46"/>
+      <c s="15" r="U46"/>
+      <c s="15" r="V46"/>
     </row>
     <row r="47">
-      <c s="13" r="A47"/>
-      <c s="13" r="B47"/>
-      <c s="13" r="C47"/>
-      <c s="13" r="D47"/>
-      <c s="13" r="E47"/>
-      <c s="13" r="F47"/>
-      <c s="13" r="G47"/>
-      <c s="13" r="H47"/>
-      <c s="13" r="I47"/>
-      <c s="13" r="J47"/>
-      <c s="13" r="K47"/>
-      <c s="13" r="L47"/>
-      <c s="13" r="M47"/>
-      <c s="13" r="N47"/>
-      <c s="13" r="O47"/>
-      <c s="13" r="P47"/>
-      <c s="13" r="Q47"/>
-      <c s="13" r="R47"/>
-      <c s="13" r="S47"/>
-      <c s="13" r="T47"/>
-      <c s="13" r="U47"/>
-      <c s="13" r="V47"/>
+      <c s="15" r="A47"/>
+      <c s="15" r="B47"/>
+      <c s="15" r="C47"/>
+      <c s="15" r="D47"/>
+      <c s="15" r="E47"/>
+      <c s="15" r="F47"/>
+      <c s="15" r="G47"/>
+      <c s="15" r="H47"/>
+      <c s="15" r="I47"/>
+      <c s="15" r="J47"/>
+      <c s="15" r="K47"/>
+      <c s="15" r="L47"/>
+      <c s="15" r="M47"/>
+      <c s="15" r="N47"/>
+      <c s="15" r="O47"/>
+      <c s="15" r="P47"/>
+      <c s="15" r="Q47"/>
+      <c s="15" r="R47"/>
+      <c s="15" r="S47"/>
+      <c s="15" r="T47"/>
+      <c s="15" r="U47"/>
+      <c s="15" r="V47"/>
     </row>
     <row r="48">
-      <c s="13" r="A48"/>
-      <c s="13" r="B48"/>
-      <c s="13" r="C48"/>
-      <c s="13" r="D48"/>
-      <c s="13" r="E48"/>
-      <c t="s" s="13" r="G48">
+      <c s="15" r="A48"/>
+      <c s="15" r="B48"/>
+      <c s="15" r="C48"/>
+      <c s="15" r="D48"/>
+      <c s="15" r="E48"/>
+      <c t="s" s="15" r="G48">
         <v>56</v>
       </c>
-      <c s="13" r="H48"/>
-      <c s="40" r="I48"/>
-      <c s="13" r="J48"/>
-      <c s="13" r="K48"/>
-      <c s="13" r="L48"/>
-      <c s="13" r="M48"/>
-      <c s="13" r="N48"/>
-      <c s="13" r="O48"/>
-      <c s="13" r="P48"/>
-      <c s="13" r="Q48"/>
-      <c s="13" r="R48"/>
-      <c s="13" r="S48"/>
-      <c s="13" r="T48"/>
-      <c s="13" r="U48"/>
-      <c s="13" r="V48"/>
+      <c s="15" r="H48"/>
+      <c s="41" r="I48"/>
+      <c s="15" r="J48"/>
+      <c s="15" r="K48"/>
+      <c s="15" r="L48"/>
+      <c s="15" r="M48"/>
+      <c s="15" r="N48"/>
+      <c s="15" r="O48"/>
+      <c s="15" r="P48"/>
+      <c s="15" r="Q48"/>
+      <c s="15" r="R48"/>
+      <c s="15" r="S48"/>
+      <c s="15" r="T48"/>
+      <c s="15" r="U48"/>
+      <c s="15" r="V48"/>
     </row>
     <row r="49">
-      <c s="13" r="A49"/>
-      <c s="13" r="B49"/>
-      <c s="13" r="C49"/>
-      <c s="13" r="D49"/>
-      <c s="13" r="E49"/>
-      <c s="13" r="G49"/>
-      <c s="13" r="H49"/>
-      <c s="13" r="I49"/>
-      <c s="13" r="J49"/>
-      <c s="13" r="K49"/>
-      <c s="13" r="L49"/>
-      <c s="13" r="M49"/>
-      <c s="13" r="N49"/>
-      <c s="13" r="O49"/>
-      <c s="13" r="P49"/>
-      <c s="13" r="Q49"/>
-      <c s="13" r="R49"/>
-      <c s="13" r="S49"/>
-      <c s="13" r="T49"/>
-      <c s="13" r="U49"/>
-      <c s="13" r="V49"/>
+      <c s="15" r="A49"/>
+      <c s="15" r="B49"/>
+      <c s="15" r="C49"/>
+      <c s="15" r="D49"/>
+      <c s="15" r="E49"/>
+      <c s="15" r="G49"/>
+      <c s="15" r="H49"/>
+      <c s="15" r="I49"/>
+      <c s="15" r="J49"/>
+      <c s="15" r="K49"/>
+      <c s="15" r="L49"/>
+      <c s="15" r="M49"/>
+      <c s="15" r="N49"/>
+      <c s="15" r="O49"/>
+      <c s="15" r="P49"/>
+      <c s="15" r="Q49"/>
+      <c s="15" r="R49"/>
+      <c s="15" r="S49"/>
+      <c s="15" r="T49"/>
+      <c s="15" r="U49"/>
+      <c s="15" r="V49"/>
     </row>
     <row r="50">
-      <c s="13" r="A50"/>
-      <c s="13" r="B50"/>
-      <c s="13" r="C50"/>
-      <c s="13" r="D50"/>
-      <c s="13" r="E50"/>
-      <c t="s" s="13" r="G50">
+      <c s="15" r="A50"/>
+      <c s="15" r="B50"/>
+      <c s="15" r="C50"/>
+      <c s="15" r="D50"/>
+      <c s="15" r="E50"/>
+      <c t="s" s="15" r="G50">
         <v>57</v>
       </c>
-      <c s="13" r="H50"/>
-      <c s="10" r="I50"/>
-      <c s="13" r="J50"/>
-      <c s="13" r="K50"/>
-      <c s="13" r="L50"/>
-      <c s="13" r="M50"/>
-      <c s="13" r="N50"/>
-      <c s="13" r="O50"/>
-      <c s="13" r="P50"/>
-      <c s="13" r="Q50"/>
-      <c s="13" r="R50"/>
-      <c s="13" r="S50"/>
-      <c s="13" r="T50"/>
-      <c s="13" r="U50"/>
-      <c s="13" r="V50"/>
+      <c s="15" r="H50"/>
+      <c s="12" r="I50"/>
+      <c s="15" r="J50"/>
+      <c s="15" r="K50"/>
+      <c s="15" r="L50"/>
+      <c s="15" r="M50"/>
+      <c s="15" r="N50"/>
+      <c s="15" r="O50"/>
+      <c s="15" r="P50"/>
+      <c s="15" r="Q50"/>
+      <c s="15" r="R50"/>
+      <c s="15" r="S50"/>
+      <c s="15" r="T50"/>
+      <c s="15" r="U50"/>
+      <c s="15" r="V50"/>
     </row>
     <row r="51">
-      <c s="13" r="A51"/>
-      <c s="13" r="B51"/>
-      <c s="13" r="C51"/>
-      <c s="13" r="D51"/>
-      <c s="13" r="E51"/>
-      <c s="13" r="F51"/>
-      <c s="13" r="G51"/>
-      <c s="13" r="H51"/>
-      <c s="13" r="I51"/>
-      <c s="13" r="J51"/>
-      <c s="13" r="K51"/>
-      <c s="13" r="L51"/>
-      <c s="13" r="M51"/>
-      <c s="13" r="N51"/>
-      <c s="13" r="O51"/>
-      <c s="13" r="P51"/>
-      <c s="13" r="Q51"/>
-      <c s="13" r="R51"/>
-      <c s="13" r="S51"/>
-      <c s="13" r="T51"/>
-      <c s="13" r="U51"/>
-      <c s="13" r="V51"/>
+      <c s="15" r="A51"/>
+      <c s="15" r="B51"/>
+      <c s="15" r="C51"/>
+      <c s="15" r="D51"/>
+      <c s="15" r="E51"/>
+      <c s="15" r="F51"/>
+      <c s="15" r="G51"/>
+      <c s="15" r="H51"/>
+      <c s="15" r="I51"/>
+      <c s="15" r="J51"/>
+      <c s="15" r="K51"/>
+      <c s="15" r="L51"/>
+      <c s="15" r="M51"/>
+      <c s="15" r="N51"/>
+      <c s="15" r="O51"/>
+      <c s="15" r="P51"/>
+      <c s="15" r="Q51"/>
+      <c s="15" r="R51"/>
+      <c s="15" r="S51"/>
+      <c s="15" r="T51"/>
+      <c s="15" r="U51"/>
+      <c s="15" r="V51"/>
     </row>
     <row r="52">
-      <c s="13" r="A52"/>
-      <c s="13" r="B52"/>
-      <c s="13" r="C52"/>
-      <c s="13" r="D52"/>
-      <c s="13" r="E52"/>
-      <c s="13" r="F52"/>
-      <c s="13" r="G52"/>
-      <c s="13" r="H52"/>
-      <c s="13" r="I52"/>
-      <c s="13" r="J52"/>
-      <c s="13" r="K52"/>
-      <c s="13" r="L52"/>
-      <c s="13" r="M52"/>
-      <c s="13" r="N52"/>
-      <c s="13" r="O52"/>
-      <c s="13" r="P52"/>
-      <c s="13" r="Q52"/>
-      <c s="13" r="R52"/>
-      <c s="13" r="S52"/>
-      <c s="13" r="T52"/>
-      <c s="13" r="U52"/>
-      <c s="13" r="V52"/>
+      <c s="15" r="A52"/>
+      <c s="15" r="B52"/>
+      <c s="15" r="C52"/>
+      <c s="15" r="D52"/>
+      <c s="15" r="E52"/>
+      <c s="15" r="F52"/>
+      <c s="15" r="G52"/>
+      <c s="15" r="H52"/>
+      <c s="15" r="I52"/>
+      <c s="15" r="J52"/>
+      <c s="15" r="K52"/>
+      <c s="15" r="L52"/>
+      <c s="15" r="M52"/>
+      <c s="15" r="N52"/>
+      <c s="15" r="O52"/>
+      <c s="15" r="P52"/>
+      <c s="15" r="Q52"/>
+      <c s="15" r="R52"/>
+      <c s="15" r="S52"/>
+      <c s="15" r="T52"/>
+      <c s="15" r="U52"/>
+      <c s="15" r="V52"/>
     </row>
     <row r="53">
-      <c s="13" r="A53"/>
-      <c s="13" r="B53"/>
-      <c s="13" r="C53"/>
-      <c s="13" r="D53"/>
-      <c s="13" r="E53"/>
-      <c s="13" r="F53"/>
-      <c s="13" r="G53"/>
-      <c s="13" r="H53"/>
-      <c s="13" r="I53"/>
-      <c s="13" r="J53"/>
-      <c s="13" r="K53"/>
-      <c s="13" r="L53"/>
-      <c s="13" r="M53"/>
-      <c s="13" r="N53"/>
-      <c s="13" r="O53"/>
-      <c s="13" r="P53"/>
-      <c s="13" r="Q53"/>
-      <c s="13" r="R53"/>
-      <c s="13" r="S53"/>
-      <c s="13" r="T53"/>
-      <c s="13" r="U53"/>
-      <c s="13" r="V53"/>
+      <c s="15" r="A53"/>
+      <c s="15" r="B53"/>
+      <c s="15" r="C53"/>
+      <c s="15" r="D53"/>
+      <c s="15" r="E53"/>
+      <c s="15" r="F53"/>
+      <c s="15" r="G53"/>
+      <c s="15" r="H53"/>
+      <c s="15" r="I53"/>
+      <c s="15" r="J53"/>
+      <c s="15" r="K53"/>
+      <c s="15" r="L53"/>
+      <c s="15" r="M53"/>
+      <c s="15" r="N53"/>
+      <c s="15" r="O53"/>
+      <c s="15" r="P53"/>
+      <c s="15" r="Q53"/>
+      <c s="15" r="R53"/>
+      <c s="15" r="S53"/>
+      <c s="15" r="T53"/>
+      <c s="15" r="U53"/>
+      <c s="15" r="V53"/>
     </row>
     <row r="54">
-      <c s="13" r="A54"/>
-      <c s="13" r="B54"/>
-      <c s="13" r="C54"/>
-      <c s="13" r="D54"/>
-      <c s="13" r="E54"/>
-      <c s="13" r="F54"/>
-      <c s="13" r="G54"/>
-      <c s="13" r="H54"/>
-      <c s="13" r="I54"/>
-      <c s="13" r="J54"/>
-      <c s="13" r="K54"/>
-      <c s="13" r="L54"/>
-      <c s="13" r="M54"/>
-      <c s="13" r="N54"/>
-      <c s="13" r="O54"/>
-      <c s="13" r="P54"/>
-      <c s="13" r="Q54"/>
-      <c s="13" r="R54"/>
-      <c s="13" r="S54"/>
-      <c s="13" r="T54"/>
-      <c s="13" r="U54"/>
-      <c s="13" r="V54"/>
+      <c s="15" r="A54"/>
+      <c s="15" r="B54"/>
+      <c s="15" r="C54"/>
+      <c s="15" r="D54"/>
+      <c s="15" r="E54"/>
+      <c s="15" r="F54"/>
+      <c s="15" r="G54"/>
+      <c s="15" r="H54"/>
+      <c s="15" r="I54"/>
+      <c s="15" r="J54"/>
+      <c s="15" r="K54"/>
+      <c s="15" r="L54"/>
+      <c s="15" r="M54"/>
+      <c s="15" r="N54"/>
+      <c s="15" r="O54"/>
+      <c s="15" r="P54"/>
+      <c s="15" r="Q54"/>
+      <c s="15" r="R54"/>
+      <c s="15" r="S54"/>
+      <c s="15" r="T54"/>
+      <c s="15" r="U54"/>
+      <c s="15" r="V54"/>
     </row>
   </sheetData>
 </worksheet>
